--- a/docs/開発環境構築手順/ポーカー開発環境構築手順.xlsx
+++ b/docs/開発環境構築手順/ポーカー開発環境構築手順.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OWNER\Downloads\pleiades-4.8.0-java-win-64bit-jre_20180923\pleiades\workspace\poker\docs\開発環境構築手順\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4002261-8924-4DBA-B0D9-F33042E7FDE3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B968FD-4C6D-48E6-90A2-5DD57B779CE1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{569B4C10-2D2E-422C-881C-247CD6F9FE90}"/>
   </bookViews>
@@ -94,17 +94,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>(2)アクセスしたサイトより、Eclipse4.8.0 Photonをインストールする。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(3)インストールしたzipファイルを任意のフォルダに解凍する。</t>
-    <rPh sb="27" eb="29">
-      <t>カイトウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>(4)解凍したフォルダ内にある「eclipse.exe」より、Eclipseを起動できることを確認する。</t>
     <rPh sb="3" eb="5">
       <t>カイトウ</t>
@@ -141,13 +130,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>(3)Eclipseの「Gitリポジトリー」ビュー内の「Gitリポジトリーのクローン」をクリックして、クローンする。</t>
-    <rPh sb="25" eb="26">
-      <t>ナイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>(5)「パッケージエクスプローラー」より、「Poker」プロジェクトが存在することを確認する。</t>
     <rPh sb="35" eb="37">
       <t>ソンザイ</t>
@@ -166,6 +148,24 @@
   </si>
   <si>
     <t xml:space="preserve">      表示されるメニューの「プロジェクトのインポート」より、「Poker」プロジェクトをインポートする。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(3)ダウンロードしたzipファイルを任意のフォルダに解凍する。</t>
+    <rPh sb="27" eb="29">
+      <t>カイトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(2)アクセスしたサイトより、「Eclipse4.8.0 Photon」の「Pleiades All in One」のzipファイルをダウンロードする。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(3)Eclipseの「Gitリポジトリー」ビュー内の「Gitリポジトリーのクローン」をクリックする。</t>
+    <rPh sb="25" eb="26">
+      <t>ナイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -958,7 +958,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>のインストールをお願い致します。</a:t>
+            <a:t>のダウンロードをお願い致します。</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
@@ -970,7 +970,7 @@
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>をインストールをしない場合は、</a:t>
+            <a:t>をダウンロードをしない場合は、</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
@@ -1257,9 +1257,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1275,12 +1275,12 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="411480" y="6309360"/>
-          <a:ext cx="3627120" cy="967740"/>
+          <a:ext cx="3764280" cy="1287780"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -9909"/>
-            <a:gd name="adj2" fmla="val 111302"/>
+            <a:gd name="adj1" fmla="val -12743"/>
+            <a:gd name="adj2" fmla="val 75799"/>
           </a:avLst>
         </a:prstGeom>
       </xdr:spPr>
@@ -1307,7 +1307,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>インストール対象はお使いの</a:t>
+            <a:t>ダウンロード対象はお使いの</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
@@ -1316,6 +1316,38 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>にあったものを選んでください。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>※Full Edition</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>の</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>zip</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ファイルの容量は</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>1GB</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>を超えるため、ダウンロードに時間がかかります。</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -3317,6 +3349,88 @@
             <a:t>」リポジトリーができている。</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="吹き出し: 四角形 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D055ED8B-24A8-48FC-996E-DE1E34108C4D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4160520" y="4000500"/>
+          <a:ext cx="2468880" cy="281940"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -73354"/>
+            <a:gd name="adj2" fmla="val 62483"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Eclipse</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>4.8.0 Photon</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>」をクリック</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3701,7 +3815,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="L15" s="6"/>
     </row>
@@ -3788,7 +3902,7 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="L43" s="6"/>
     </row>
@@ -3797,7 +3911,7 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L45" s="6"/>
     </row>
@@ -3839,7 +3953,7 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L50" s="6"/>
     </row>
@@ -3887,335 +4001,335 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
+        <v>9</v>
+      </c>
+      <c r="L65" s="6"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L66" s="6"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L67" s="6"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L68" s="6"/>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L69" s="6"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L70" s="6"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L71" s="6"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L72" s="6"/>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L73" s="6"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L74" s="6"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L75" s="6"/>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L76" s="6"/>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L77" s="6"/>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L78" s="6"/>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L79" s="6"/>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L80" s="6"/>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L81" s="6"/>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A82" t="s">
+        <v>15</v>
+      </c>
+      <c r="L82" s="6"/>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L83" s="6"/>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L84" s="6"/>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L85" s="6"/>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L86" s="6"/>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L87" s="6"/>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L88" s="6"/>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L89" s="6"/>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L90" s="6"/>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L91" s="6"/>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L92" s="6"/>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L93" s="6"/>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L94" s="6"/>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L95" s="6"/>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L96" s="6"/>
+    </row>
+    <row r="97" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L97" s="6"/>
+    </row>
+    <row r="98" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L98" s="6"/>
+    </row>
+    <row r="99" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L99" s="6"/>
+    </row>
+    <row r="100" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L100" s="6"/>
+    </row>
+    <row r="101" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L101" s="6"/>
+    </row>
+    <row r="102" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L102" s="6"/>
+    </row>
+    <row r="103" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L103" s="6"/>
+    </row>
+    <row r="104" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L104" s="6"/>
+    </row>
+    <row r="105" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L105" s="6"/>
+    </row>
+    <row r="106" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L106" s="6"/>
+    </row>
+    <row r="107" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L107" s="6"/>
+    </row>
+    <row r="108" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L108" s="6"/>
+    </row>
+    <row r="109" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L109" s="6"/>
+    </row>
+    <row r="110" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L110" s="6"/>
+    </row>
+    <row r="111" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L111" s="6"/>
+    </row>
+    <row r="112" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L112" s="6"/>
+    </row>
+    <row r="113" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L113" s="6"/>
+    </row>
+    <row r="114" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L114" s="6"/>
+    </row>
+    <row r="115" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L115" s="6"/>
+    </row>
+    <row r="116" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L116" s="6"/>
+    </row>
+    <row r="117" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L117" s="6"/>
+    </row>
+    <row r="118" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L118" s="6"/>
+    </row>
+    <row r="119" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L119" s="6"/>
+    </row>
+    <row r="120" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L120" s="6"/>
+    </row>
+    <row r="121" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L121" s="6"/>
+    </row>
+    <row r="122" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L122" s="6"/>
+    </row>
+    <row r="123" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L123" s="6"/>
+    </row>
+    <row r="124" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L124" s="6"/>
+    </row>
+    <row r="125" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L125" s="6"/>
+    </row>
+    <row r="126" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L126" s="6"/>
+    </row>
+    <row r="127" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L127" s="6"/>
+    </row>
+    <row r="128" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L128" s="6"/>
+    </row>
+    <row r="129" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L129" s="6"/>
+    </row>
+    <row r="130" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L130" s="6"/>
+    </row>
+    <row r="131" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L131" s="6"/>
+    </row>
+    <row r="132" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L132" s="6"/>
+    </row>
+    <row r="133" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L133" s="6"/>
+    </row>
+    <row r="134" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L134" s="6"/>
+    </row>
+    <row r="135" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L135" s="6"/>
+    </row>
+    <row r="136" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L136" s="6"/>
+    </row>
+    <row r="137" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L137" s="6"/>
+    </row>
+    <row r="138" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L138" s="6"/>
+    </row>
+    <row r="139" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L139" s="6"/>
+    </row>
+    <row r="140" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L140" s="6"/>
+    </row>
+    <row r="141" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L141" s="6"/>
+    </row>
+    <row r="142" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L142" s="6"/>
+    </row>
+    <row r="143" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L143" s="6"/>
+    </row>
+    <row r="144" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L144" s="6"/>
+    </row>
+    <row r="145" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L145" s="6"/>
+    </row>
+    <row r="146" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L146" s="6"/>
+    </row>
+    <row r="147" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L147" s="6"/>
+    </row>
+    <row r="148" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L148" s="6"/>
+    </row>
+    <row r="149" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L149" s="6"/>
+    </row>
+    <row r="150" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L150" s="6"/>
+    </row>
+    <row r="151" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L151" s="6"/>
+    </row>
+    <row r="152" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L152" s="6"/>
+    </row>
+    <row r="153" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L153" s="6"/>
+    </row>
+    <row r="154" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L154" s="6"/>
+    </row>
+    <row r="155" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L155" s="6"/>
+    </row>
+    <row r="156" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L156" s="6"/>
+    </row>
+    <row r="157" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L157" s="6"/>
+    </row>
+    <row r="158" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L158" s="6"/>
+    </row>
+    <row r="159" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L159" s="6"/>
+    </row>
+    <row r="160" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L160" s="6"/>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L161" s="6"/>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L162" s="6"/>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L163" s="6"/>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L164" s="6"/>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L165" s="6"/>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L166" s="6"/>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L167" s="6"/>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L168" s="6"/>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L169" s="6"/>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A170" t="s">
         <v>11</v>
       </c>
-      <c r="L65" s="6"/>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L66" s="6"/>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L67" s="6"/>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L68" s="6"/>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L69" s="6"/>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L70" s="6"/>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L71" s="6"/>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L72" s="6"/>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L73" s="6"/>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L74" s="6"/>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L75" s="6"/>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L76" s="6"/>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L77" s="6"/>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L78" s="6"/>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L79" s="6"/>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L80" s="6"/>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L81" s="6"/>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A82" t="s">
+      <c r="L170" s="6"/>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A171" t="s">
         <v>12</v>
       </c>
-      <c r="L82" s="6"/>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L83" s="6"/>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L84" s="6"/>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L85" s="6"/>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L86" s="6"/>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L87" s="6"/>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L88" s="6"/>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L89" s="6"/>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L90" s="6"/>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L91" s="6"/>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L92" s="6"/>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L93" s="6"/>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L94" s="6"/>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L95" s="6"/>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L96" s="6"/>
-    </row>
-    <row r="97" spans="12:12" x14ac:dyDescent="0.45">
-      <c r="L97" s="6"/>
-    </row>
-    <row r="98" spans="12:12" x14ac:dyDescent="0.45">
-      <c r="L98" s="6"/>
-    </row>
-    <row r="99" spans="12:12" x14ac:dyDescent="0.45">
-      <c r="L99" s="6"/>
-    </row>
-    <row r="100" spans="12:12" x14ac:dyDescent="0.45">
-      <c r="L100" s="6"/>
-    </row>
-    <row r="101" spans="12:12" x14ac:dyDescent="0.45">
-      <c r="L101" s="6"/>
-    </row>
-    <row r="102" spans="12:12" x14ac:dyDescent="0.45">
-      <c r="L102" s="6"/>
-    </row>
-    <row r="103" spans="12:12" x14ac:dyDescent="0.45">
-      <c r="L103" s="6"/>
-    </row>
-    <row r="104" spans="12:12" x14ac:dyDescent="0.45">
-      <c r="L104" s="6"/>
-    </row>
-    <row r="105" spans="12:12" x14ac:dyDescent="0.45">
-      <c r="L105" s="6"/>
-    </row>
-    <row r="106" spans="12:12" x14ac:dyDescent="0.45">
-      <c r="L106" s="6"/>
-    </row>
-    <row r="107" spans="12:12" x14ac:dyDescent="0.45">
-      <c r="L107" s="6"/>
-    </row>
-    <row r="108" spans="12:12" x14ac:dyDescent="0.45">
-      <c r="L108" s="6"/>
-    </row>
-    <row r="109" spans="12:12" x14ac:dyDescent="0.45">
-      <c r="L109" s="6"/>
-    </row>
-    <row r="110" spans="12:12" x14ac:dyDescent="0.45">
-      <c r="L110" s="6"/>
-    </row>
-    <row r="111" spans="12:12" x14ac:dyDescent="0.45">
-      <c r="L111" s="6"/>
-    </row>
-    <row r="112" spans="12:12" x14ac:dyDescent="0.45">
-      <c r="L112" s="6"/>
-    </row>
-    <row r="113" spans="12:12" x14ac:dyDescent="0.45">
-      <c r="L113" s="6"/>
-    </row>
-    <row r="114" spans="12:12" x14ac:dyDescent="0.45">
-      <c r="L114" s="6"/>
-    </row>
-    <row r="115" spans="12:12" x14ac:dyDescent="0.45">
-      <c r="L115" s="6"/>
-    </row>
-    <row r="116" spans="12:12" x14ac:dyDescent="0.45">
-      <c r="L116" s="6"/>
-    </row>
-    <row r="117" spans="12:12" x14ac:dyDescent="0.45">
-      <c r="L117" s="6"/>
-    </row>
-    <row r="118" spans="12:12" x14ac:dyDescent="0.45">
-      <c r="L118" s="6"/>
-    </row>
-    <row r="119" spans="12:12" x14ac:dyDescent="0.45">
-      <c r="L119" s="6"/>
-    </row>
-    <row r="120" spans="12:12" x14ac:dyDescent="0.45">
-      <c r="L120" s="6"/>
-    </row>
-    <row r="121" spans="12:12" x14ac:dyDescent="0.45">
-      <c r="L121" s="6"/>
-    </row>
-    <row r="122" spans="12:12" x14ac:dyDescent="0.45">
-      <c r="L122" s="6"/>
-    </row>
-    <row r="123" spans="12:12" x14ac:dyDescent="0.45">
-      <c r="L123" s="6"/>
-    </row>
-    <row r="124" spans="12:12" x14ac:dyDescent="0.45">
-      <c r="L124" s="6"/>
-    </row>
-    <row r="125" spans="12:12" x14ac:dyDescent="0.45">
-      <c r="L125" s="6"/>
-    </row>
-    <row r="126" spans="12:12" x14ac:dyDescent="0.45">
-      <c r="L126" s="6"/>
-    </row>
-    <row r="127" spans="12:12" x14ac:dyDescent="0.45">
-      <c r="L127" s="6"/>
-    </row>
-    <row r="128" spans="12:12" x14ac:dyDescent="0.45">
-      <c r="L128" s="6"/>
-    </row>
-    <row r="129" spans="12:12" x14ac:dyDescent="0.45">
-      <c r="L129" s="6"/>
-    </row>
-    <row r="130" spans="12:12" x14ac:dyDescent="0.45">
-      <c r="L130" s="6"/>
-    </row>
-    <row r="131" spans="12:12" x14ac:dyDescent="0.45">
-      <c r="L131" s="6"/>
-    </row>
-    <row r="132" spans="12:12" x14ac:dyDescent="0.45">
-      <c r="L132" s="6"/>
-    </row>
-    <row r="133" spans="12:12" x14ac:dyDescent="0.45">
-      <c r="L133" s="6"/>
-    </row>
-    <row r="134" spans="12:12" x14ac:dyDescent="0.45">
-      <c r="L134" s="6"/>
-    </row>
-    <row r="135" spans="12:12" x14ac:dyDescent="0.45">
-      <c r="L135" s="6"/>
-    </row>
-    <row r="136" spans="12:12" x14ac:dyDescent="0.45">
-      <c r="L136" s="6"/>
-    </row>
-    <row r="137" spans="12:12" x14ac:dyDescent="0.45">
-      <c r="L137" s="6"/>
-    </row>
-    <row r="138" spans="12:12" x14ac:dyDescent="0.45">
-      <c r="L138" s="6"/>
-    </row>
-    <row r="139" spans="12:12" x14ac:dyDescent="0.45">
-      <c r="L139" s="6"/>
-    </row>
-    <row r="140" spans="12:12" x14ac:dyDescent="0.45">
-      <c r="L140" s="6"/>
-    </row>
-    <row r="141" spans="12:12" x14ac:dyDescent="0.45">
-      <c r="L141" s="6"/>
-    </row>
-    <row r="142" spans="12:12" x14ac:dyDescent="0.45">
-      <c r="L142" s="6"/>
-    </row>
-    <row r="143" spans="12:12" x14ac:dyDescent="0.45">
-      <c r="L143" s="6"/>
-    </row>
-    <row r="144" spans="12:12" x14ac:dyDescent="0.45">
-      <c r="L144" s="6"/>
-    </row>
-    <row r="145" spans="12:12" x14ac:dyDescent="0.45">
-      <c r="L145" s="6"/>
-    </row>
-    <row r="146" spans="12:12" x14ac:dyDescent="0.45">
-      <c r="L146" s="6"/>
-    </row>
-    <row r="147" spans="12:12" x14ac:dyDescent="0.45">
-      <c r="L147" s="6"/>
-    </row>
-    <row r="148" spans="12:12" x14ac:dyDescent="0.45">
-      <c r="L148" s="6"/>
-    </row>
-    <row r="149" spans="12:12" x14ac:dyDescent="0.45">
-      <c r="L149" s="6"/>
-    </row>
-    <row r="150" spans="12:12" x14ac:dyDescent="0.45">
-      <c r="L150" s="6"/>
-    </row>
-    <row r="151" spans="12:12" x14ac:dyDescent="0.45">
-      <c r="L151" s="6"/>
-    </row>
-    <row r="152" spans="12:12" x14ac:dyDescent="0.45">
-      <c r="L152" s="6"/>
-    </row>
-    <row r="153" spans="12:12" x14ac:dyDescent="0.45">
-      <c r="L153" s="6"/>
-    </row>
-    <row r="154" spans="12:12" x14ac:dyDescent="0.45">
-      <c r="L154" s="6"/>
-    </row>
-    <row r="155" spans="12:12" x14ac:dyDescent="0.45">
-      <c r="L155" s="6"/>
-    </row>
-    <row r="156" spans="12:12" x14ac:dyDescent="0.45">
-      <c r="L156" s="6"/>
-    </row>
-    <row r="157" spans="12:12" x14ac:dyDescent="0.45">
-      <c r="L157" s="6"/>
-    </row>
-    <row r="158" spans="12:12" x14ac:dyDescent="0.45">
-      <c r="L158" s="6"/>
-    </row>
-    <row r="159" spans="12:12" x14ac:dyDescent="0.45">
-      <c r="L159" s="6"/>
-    </row>
-    <row r="160" spans="12:12" x14ac:dyDescent="0.45">
-      <c r="L160" s="6"/>
-    </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L161" s="6"/>
-    </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L162" s="6"/>
-    </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L163" s="6"/>
-    </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L164" s="6"/>
-    </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L165" s="6"/>
-    </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L166" s="6"/>
-    </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L167" s="6"/>
-    </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L168" s="6"/>
-    </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L169" s="6"/>
-    </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A170" t="s">
-        <v>14</v>
-      </c>
-      <c r="L170" s="6"/>
-    </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A171" t="s">
-        <v>15</v>
-      </c>
       <c r="L171" s="6"/>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.45">
@@ -4268,7 +4382,7 @@
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A188" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="L188" s="6"/>
     </row>

--- a/docs/開発環境構築手順/ポーカー開発環境構築手順.xlsx
+++ b/docs/開発環境構築手順/ポーカー開発環境構築手順.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OWNER\Downloads\pleiades-4.8.0-java-win-64bit-jre_20180923\pleiades\workspace\poker\docs\開発環境構築手順\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B968FD-4C6D-48E6-90A2-5DD57B779CE1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A398EDF-C7F5-48E9-A386-249DB4155A08}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{569B4C10-2D2E-422C-881C-247CD6F9FE90}"/>
   </bookViews>
@@ -173,7 +173,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,6 +192,15 @@
     <font>
       <sz val="11"/>
       <color theme="9"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -250,12 +259,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -277,8 +289,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3778,7 +3794,7 @@
       <c r="L3" s="6"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
+      <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
       <c r="L4" s="6"/>
@@ -3952,7 +3968,7 @@
       <c r="L49" s="6"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A50" t="s">
+      <c r="A50" s="7" t="s">
         <v>8</v>
       </c>
       <c r="L50" s="6"/>
@@ -4585,7 +4601,11 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="A4" r:id="rId1" xr:uid="{A0EFF282-7E98-4B68-870E-B54B403CF237}"/>
+    <hyperlink ref="A50" r:id="rId2" xr:uid="{880BB522-7E2F-4AF2-8C85-0C0BB11B50F2}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/docs/開発環境構築手順/ポーカー開発環境構築手順.xlsx
+++ b/docs/開発環境構築手順/ポーカー開発環境構築手順.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OWNER\Downloads\pleiades-4.8.0-java-win-64bit-jre_20180923\pleiades\workspace\poker\docs\開発環境構築手順\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A398EDF-C7F5-48E9-A386-249DB4155A08}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B63F32A1-6E8E-4106-AA76-9D063D6A334C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{569B4C10-2D2E-422C-881C-247CD6F9FE90}"/>
   </bookViews>
   <sheets>
-    <sheet name="開発環境構築手順" sheetId="6" r:id="rId1"/>
+    <sheet name="開発環境構築手順" sheetId="8" r:id="rId1"/>
+    <sheet name="BK" sheetId="7" r:id="rId2"/>
+    <sheet name="開発環境構築手順(3月10日時点)" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
   <si>
     <t>手順</t>
     <rPh sb="0" eb="2">
@@ -165,6 +167,85 @@
     <t>(3)Eclipseの「Gitリポジトリー」ビュー内の「Gitリポジトリーのクローン」をクリックする。</t>
     <rPh sb="25" eb="26">
       <t>ナイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lombokインストール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(1)「https://projectlombok.org/download」にアクセスして、以下画面を表示する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(2)「Download バージョン(上記画像では1.18.6)」をクリックして、lombok.jarをダウンロードする。</t>
+    <rPh sb="19" eb="21">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(3)ダウンロードしたlombok.jarをダブルクリックして、以下のダイアログを表示する。</t>
+    <rPh sb="32" eb="34">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(4)「OK」をクリックして、ダイアログを閉じる。</t>
+    <rPh sb="21" eb="22">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(5)以下画面の「Specify location」ボタンをクリックする。</t>
+    <rPh sb="3" eb="5">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(6)「Select」ウィンドウより、インストール対象のEclipseの「eclipse.exe」が存在するディレクトリのパスを指定する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(7)以下の画面の「Install / Update」ボタンをクリックする。</t>
+    <rPh sb="3" eb="5">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(8)以下の画面の「Quit Installer」ボタンをクリックする。</t>
+    <rPh sb="3" eb="5">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(9)Eclipseより、「ファイル(F) -&gt; 再開」をクリックして、Eclipseを再起動する。</t>
+    <rPh sb="25" eb="27">
+      <t>サイカイ</t>
+    </rPh>
+    <rPh sb="44" eb="47">
+      <t>サイキドウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -311,6 +392,4070 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>669341</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>358138</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>220980</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77E0115E-DDDB-494D-80A2-B565D9840543}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="669341" y="1051560"/>
+          <a:ext cx="4382717" cy="1912620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>629051</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>619599</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>65871</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="図 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A658D2A-770B-402E-867C-06E640A8A6B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="629051" y="6202680"/>
+          <a:ext cx="5355028" cy="3007191"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="吹き出し: 四角形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45E464B6-D95A-4CCD-BC57-B42D24B964B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5966460" y="6972300"/>
+          <a:ext cx="3627120" cy="967740"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -66001"/>
+            <a:gd name="adj2" fmla="val 30987"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Full</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> Edition</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>のダウンロードをお願い致します。</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Full</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t> Edition</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>をダウンロードをしない場合は、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>Java</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>インストールや環境変数の設定を必要に応じてお願い致します。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>90221</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>449578</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="図 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{379442ED-A04B-477F-B2F2-1CD974BA73F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="760781" y="3688080"/>
+          <a:ext cx="4382717" cy="1912620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>617220</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="正方形/長方形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17968B85-2AFA-4309-8C71-870269A3D982}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2628900" y="4221480"/>
+          <a:ext cx="845820" cy="335280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>583692</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="矢印: 下 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76D295E9-FC92-4122-B9F2-99BA608EB201}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2781300" y="5745480"/>
+          <a:ext cx="484632" cy="335280"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3835</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>466775</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>119121</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="図 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78472453-2DB2-4BB7-B4DE-8784FF79DE16}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="674395" y="11711940"/>
+          <a:ext cx="5827420" cy="2808981"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="吹き出し: 四角形 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C526B96-C825-40D1-AB91-FB1C69141D95}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="411480" y="6309360"/>
+          <a:ext cx="3764280" cy="1287780"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -12743"/>
+            <a:gd name="adj2" fmla="val 75799"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ダウンロード対象はお使いの</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>PC</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>にあったものを選んでください。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>※Full Edition</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>の</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>zip</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ファイルの容量は</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>1GB</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>を超えるため、ダウンロードに時間がかかります。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>531520</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>180081</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="図 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9328446-A542-4156-8000-F18FF1F82F3C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="739140" y="15201900"/>
+          <a:ext cx="5827420" cy="2808981"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>350519</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="正方形/長方形 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F32C139-C274-4F6E-B7FC-6E3947AE03D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5714999" y="17305020"/>
+          <a:ext cx="198121" cy="175260"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>289559</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="正方形/長方形 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FF08B57-29C1-4F2A-BB0B-B2ED7F705F40}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4312919" y="16992600"/>
+          <a:ext cx="1623061" cy="769620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="吹き出し: 四角形 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{674F8CE9-1DED-4A4C-9192-BBFBEE6D2CF5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6568440" y="16306800"/>
+          <a:ext cx="3627120" cy="967740"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -66001"/>
+            <a:gd name="adj2" fmla="val 30987"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Clone or download</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>」ボタンをクリックして、表示された緑枠で囲まれたポップアップ内の、赤枠で囲まれたアイコンをクリックすることで、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>URL</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>をコピーする。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>444565</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>83821</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>33905</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>160021</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="図 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD8A2D42-27C8-4128-AC4E-B72417BE2142}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1115125" y="19286221"/>
+          <a:ext cx="4283260" cy="1676400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>61595</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>136346</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>88789</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="図 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{131D97AA-4A76-43CF-81DE-3D18359EE0B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2057400" y="21778595"/>
+          <a:ext cx="2772866" cy="2541794"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>638822</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>159215</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>124980</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="図 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB947572-A265-4660-BD4D-591EB2D14AC1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1979942" y="25336500"/>
+          <a:ext cx="2873193" cy="2677680"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>15239</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="正方形/長方形 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6640B031-1CCA-47CC-9FF4-4CDCEFA5F01B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2697479" y="20269200"/>
+          <a:ext cx="1120141" cy="137160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>103632</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="矢印: 下 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD79DEDD-402D-4E6A-8026-E99421BD546E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2971800" y="21282660"/>
+          <a:ext cx="484632" cy="335280"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>60959</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="正方形/長方形 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10A7F188-B754-43BE-B64C-B9617E0A4E29}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2072639" y="22357080"/>
+          <a:ext cx="678181" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>263652</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="矢印: 下 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{644E72A7-5250-4C65-850A-96211F77BB7F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3131820" y="24742140"/>
+          <a:ext cx="484632" cy="335280"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="吹き出し: 四角形 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{144AB81B-9DD0-4280-918B-BBF6EE7D28A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3139440" y="22197060"/>
+          <a:ext cx="2110740" cy="350520"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -66001"/>
+            <a:gd name="adj2" fmla="val 30987"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>「クローン</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>URL</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>」をクリック。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="吹き出し: 四角形 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4569AE0-32D7-4446-ACDC-9938F1E8E891}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4785360" y="25869900"/>
+          <a:ext cx="2651760" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -66001"/>
+            <a:gd name="adj2" fmla="val 30987"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>(2)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>を実施している場合は、各項目が入力された状態で表示されます。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="吹き出し: 四角形 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95928B96-85A0-4085-82DB-9ADE4B4403D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4061460" y="27660600"/>
+          <a:ext cx="1752600" cy="312420"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -66001"/>
+            <a:gd name="adj2" fmla="val 30987"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>「次へ」をクリック。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>632460</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>116298</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>353513</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>204987</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="図 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76597057-B782-424F-9984-12F649C08291}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1973580" y="28691298"/>
+          <a:ext cx="3073853" cy="2831889"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>632460</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>446532</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="矢印: 下 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23CA28C9-7E8F-4434-A130-E9C05865F67D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3314700" y="31760160"/>
+          <a:ext cx="484632" cy="335280"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>309372</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="矢印: 下 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3E8E228-CB36-410A-9052-444715EECD9B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3177540" y="28194000"/>
+          <a:ext cx="484632" cy="335280"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="吹き出し: 四角形 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F12E2305-3D11-4F80-A010-4038F4F12D77}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4076700" y="31043880"/>
+          <a:ext cx="1752600" cy="312420"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -66001"/>
+            <a:gd name="adj2" fmla="val 30987"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>「次へ」をクリック。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>133057</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>113495</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>128797</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="図 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C934592-7487-462C-BE12-E73E9B6961A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2263140" y="32365657"/>
+          <a:ext cx="3214835" cy="2967540"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="吹き出し: 四角形 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A1AF1E6-01ED-41ED-8511-FAA87DE7E4D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5143500" y="34891980"/>
+          <a:ext cx="1752600" cy="312420"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -66001"/>
+            <a:gd name="adj2" fmla="val 30987"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>「完了」をクリック。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>11572</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>408776</xdr:colOff>
+      <xdr:row>183</xdr:row>
+      <xdr:rowOff>52597</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="図 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B73D5844-3387-4115-92AB-A4928696B887}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="342900" y="39330772"/>
+          <a:ext cx="2748116" cy="2555625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>395938</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>377953</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>81073</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="図 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F2C8E6B-FB67-4595-BE73-61F1FB71289E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4419298" y="39227760"/>
+          <a:ext cx="3334815" cy="2458513"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="吹き出し: 四角形 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF8975D0-6AAE-4A89-A989-E6AD62805F07}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7459980" y="41315640"/>
+          <a:ext cx="1752600" cy="312420"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -66001"/>
+            <a:gd name="adj2" fmla="val 30987"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>「完了」をクリック。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>164592</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="矢印: 右 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{537A0C3D-F966-4918-A2E4-B3B8B2E5E0D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3467100" y="40370760"/>
+          <a:ext cx="419100" cy="484632"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>183</xdr:row>
+      <xdr:rowOff>133492</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>186</xdr:row>
+      <xdr:rowOff>205740</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="吹き出し: 四角形 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D918D61C-8D68-4AA0-873E-D4BD0D5AF75A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1440180" y="41967292"/>
+          <a:ext cx="1950720" cy="758048"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -65833"/>
+            <a:gd name="adj2" fmla="val -69341"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>右クリックして、メニューを表示する。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>163972</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="吹き出し: 四角形 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BC2B6BD-23F4-4ECD-9325-53F9BA030FD1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2377440" y="39025972"/>
+          <a:ext cx="1950720" cy="758048"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -79114"/>
+            <a:gd name="adj2" fmla="val 162863"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>「プロジェクト</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>のインポート</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>」をクリック。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="正方形/長方形 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1A07BFB-001D-451A-814E-AB5ACE6B5593}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1150620" y="40706040"/>
+          <a:ext cx="1066800" cy="121920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>640080</xdr:colOff>
+      <xdr:row>188</xdr:row>
+      <xdr:rowOff>149560</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>28000</xdr:colOff>
+      <xdr:row>199</xdr:row>
+      <xdr:rowOff>163404</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="図 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07A24D36-6ACD-48FD-A862-0C62042AADC8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1310640" y="43126360"/>
+          <a:ext cx="3411280" cy="2528444"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>9012</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>323081</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>75848</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="図 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2693481-CF49-48DB-890B-E3A19BEA66A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1722120" y="36356412"/>
+          <a:ext cx="4636001" cy="2124236"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>198120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>568452</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="矢印: 下 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA93405F-8DA7-4006-B330-917BEF9210DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3436620" y="35631120"/>
+          <a:ext cx="484632" cy="335280"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="吹き出し: 四角形 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06594A5B-30DA-451F-9D6A-86E12CE7221A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4907280" y="36301680"/>
+          <a:ext cx="3063240" cy="312420"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -66001"/>
+            <a:gd name="adj2" fmla="val 30987"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Poker</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>」リポジトリーができている。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="吹き出し: 四角形 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D285C70-34A7-4402-9C49-C34F9D6005BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4160520" y="4000500"/>
+          <a:ext cx="2468880" cy="281940"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -73354"/>
+            <a:gd name="adj2" fmla="val 62483"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Eclipse</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>4.8.0 Photon</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>」をクリック</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="正方形/長方形 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4DB2DAE-52B0-45CA-B906-7428B4CCBED4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2468880" y="7802880"/>
+          <a:ext cx="662940" cy="205740"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="正方形/長方形 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA0F3BA2-5BD8-48A4-846D-40EF1705AF39}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2491740" y="8252460"/>
+          <a:ext cx="701040" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="正方形/長方形 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D385B8BB-98B7-40F4-9D26-AC54991ACB4E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2499360" y="8732520"/>
+          <a:ext cx="716280" cy="213360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>312</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3094330" cy="2865120"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="53" name="図 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA3BC00A-D1C1-4A18-BB9F-5E3681219A64}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="487680" y="46809660"/>
+          <a:ext cx="3094330" cy="2865120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>632460</xdr:colOff>
+      <xdr:row>312</xdr:row>
+      <xdr:rowOff>48972</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2504562" cy="4131655"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="54" name="図 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64F0ABBB-B197-4CD6-948C-37A294EC8931}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4655820" y="46683372"/>
+          <a:ext cx="2504562" cy="4131655"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>320</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>320</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="正方形/長方形 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09774342-5FE9-4827-916F-EA17D4FB4DF3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="845820" y="48531780"/>
+          <a:ext cx="1066800" cy="121920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>624840</xdr:colOff>
+      <xdr:row>328</xdr:row>
+      <xdr:rowOff>205740</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>329</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="正方形/長方形 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1369301E-6B57-4A0D-8972-D3CBED2A1733}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4648200" y="50497740"/>
+          <a:ext cx="2278380" cy="121920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>321</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>325</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="吹き出し: 四角形 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4902F94C-1F76-48B2-8091-730A0DBD4DE1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2133600" y="48844200"/>
+          <a:ext cx="1950720" cy="937260"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -65833"/>
+            <a:gd name="adj2" fmla="val -69341"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>右クリックして、メニューを表示する。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>640080</xdr:colOff>
+      <xdr:row>318</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>320</xdr:row>
+      <xdr:rowOff>149352</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="矢印: 右 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{359BD0C3-B9B4-4218-B5DC-2AA8FEEDDEDB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3992880" y="48127920"/>
+          <a:ext cx="419100" cy="484632"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>335</xdr:row>
+      <xdr:rowOff>23458</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5162269" cy="2402495"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="59" name="図 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8A221C1-4DC8-4297-857F-87B6C5460A55}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="891540" y="51915658"/>
+          <a:ext cx="5162269" cy="2402495"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>570726</xdr:colOff>
+      <xdr:row>204</xdr:row>
+      <xdr:rowOff>220980</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>188646</xdr:colOff>
+      <xdr:row>215</xdr:row>
+      <xdr:rowOff>107798</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="60" name="図 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C70CCEAE-3527-4CBF-890F-2330CE18FA12}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="570726" y="46855380"/>
+          <a:ext cx="5652960" cy="2401418"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>220</xdr:row>
+      <xdr:rowOff>134441</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>652453</xdr:colOff>
+      <xdr:row>224</xdr:row>
+      <xdr:rowOff>28371</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="61" name="図 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8694B8E7-B0A9-4379-A17B-26F54F3DE644}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="861060" y="50426441"/>
+          <a:ext cx="3814753" cy="808330"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>228</xdr:row>
+      <xdr:rowOff>205740</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>241</xdr:row>
+      <xdr:rowOff>23784</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="62" name="図 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2C16D26-9CEC-45C9-BE13-D706B5C500F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="236220" y="52326540"/>
+          <a:ext cx="4831080" cy="2789844"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>650488</xdr:colOff>
+      <xdr:row>245</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>545855</xdr:colOff>
+      <xdr:row>259</xdr:row>
+      <xdr:rowOff>71769</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="64" name="図 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8666ADBB-74FE-4B1F-80AC-C72B4E05182A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="650488" y="59466480"/>
+          <a:ext cx="4589287" cy="3241689"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>237</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>238</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="正方形/長方形 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C46C794-FBA7-40FA-9930-00E63895A13A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1089660" y="54368700"/>
+          <a:ext cx="708660" cy="144780"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>593754</xdr:colOff>
+      <xdr:row>262</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>503590</xdr:colOff>
+      <xdr:row>274</xdr:row>
+      <xdr:rowOff>24063</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="70" name="図 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50548FFB-1859-4B33-A9B2-F4CB5F9DF135}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="593754" y="59817000"/>
+          <a:ext cx="4603756" cy="2614863"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>464214</xdr:colOff>
+      <xdr:row>271</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>502314</xdr:colOff>
+      <xdr:row>271</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="71" name="正方形/長方形 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B779496-16AA-4AB1-9C02-45BB07E465E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4487574" y="61744860"/>
+          <a:ext cx="708660" cy="144780"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>277</xdr:row>
+      <xdr:rowOff>179334</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>522651</xdr:colOff>
+      <xdr:row>291</xdr:row>
+      <xdr:rowOff>31669</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="72" name="図 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B219DC96-6E65-460C-84C3-40BB6CF6694C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="670560" y="63501534"/>
+          <a:ext cx="5216571" cy="3052735"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>290</xdr:row>
+      <xdr:rowOff>49794</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>290</xdr:row>
+      <xdr:rowOff>194574</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="73" name="正方形/長方形 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{633F05C4-A720-46F4-B443-4D6EC65E6902}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5196840" y="66343794"/>
+          <a:ext cx="708660" cy="144780"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>293</xdr:row>
+      <xdr:rowOff>171412</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>258589</xdr:colOff>
+      <xdr:row>307</xdr:row>
+      <xdr:rowOff>163103</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="75" name="図 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0D13BFF-6853-4EBC-A59B-78385E7F6AFD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="784860" y="67151212"/>
+          <a:ext cx="2155969" cy="3192091"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>293</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>525780</xdr:colOff>
+      <xdr:row>294</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="76" name="正方形/長方形 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3821EC45-1E1E-4D39-83D0-4C81C42DC10A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="67132200"/>
+          <a:ext cx="434340" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>306</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>307</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="77" name="正方形/長方形 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62E1F297-D661-4761-ABCF-3DCB73A7D96D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="899160" y="70050660"/>
+          <a:ext cx="312420" cy="129540"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3751,8 +7896,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0056C8EF-7051-4434-8E7C-D4E89464A8A9}">
-  <dimension ref="A1:L240"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D095BB7-15DF-49C4-AEA7-1D091CCB03BC}">
+  <dimension ref="A1:L348"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4454,6 +8599,1255 @@
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A202" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B202" s="4"/>
+      <c r="C202" s="4"/>
+      <c r="D202" s="4"/>
+      <c r="E202" s="4"/>
+      <c r="F202" s="4"/>
+      <c r="G202" s="4"/>
+      <c r="H202" s="4"/>
+      <c r="I202" s="4"/>
+      <c r="J202" s="4"/>
+      <c r="K202" s="4"/>
+      <c r="L202" s="5"/>
+    </row>
+    <row r="203" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L203" s="6"/>
+    </row>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A204" t="s">
+        <v>17</v>
+      </c>
+      <c r="L204" s="6"/>
+    </row>
+    <row r="205" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L205" s="6"/>
+    </row>
+    <row r="206" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L206" s="6"/>
+    </row>
+    <row r="207" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L207" s="6"/>
+    </row>
+    <row r="208" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L208" s="6"/>
+    </row>
+    <row r="209" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L209" s="6"/>
+    </row>
+    <row r="210" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L210" s="6"/>
+    </row>
+    <row r="211" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L211" s="6"/>
+    </row>
+    <row r="212" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L212" s="6"/>
+    </row>
+    <row r="213" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L213" s="6"/>
+    </row>
+    <row r="214" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L214" s="6"/>
+    </row>
+    <row r="215" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L215" s="6"/>
+    </row>
+    <row r="216" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L216" s="6"/>
+    </row>
+    <row r="217" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L217" s="6"/>
+    </row>
+    <row r="218" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A218" t="s">
+        <v>18</v>
+      </c>
+      <c r="L218" s="6"/>
+    </row>
+    <row r="219" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L219" s="6"/>
+    </row>
+    <row r="220" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A220" t="s">
+        <v>19</v>
+      </c>
+      <c r="L220" s="6"/>
+    </row>
+    <row r="221" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L221" s="6"/>
+    </row>
+    <row r="222" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L222" s="6"/>
+    </row>
+    <row r="223" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L223" s="6"/>
+    </row>
+    <row r="224" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L224" s="6"/>
+    </row>
+    <row r="225" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L225" s="6"/>
+    </row>
+    <row r="226" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A226" t="s">
+        <v>20</v>
+      </c>
+      <c r="L226" s="6"/>
+    </row>
+    <row r="227" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L227" s="6"/>
+    </row>
+    <row r="228" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A228" t="s">
+        <v>21</v>
+      </c>
+      <c r="L228" s="6"/>
+    </row>
+    <row r="229" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L229" s="6"/>
+    </row>
+    <row r="230" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L230" s="6"/>
+    </row>
+    <row r="231" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L231" s="6"/>
+    </row>
+    <row r="232" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L232" s="6"/>
+    </row>
+    <row r="233" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L233" s="6"/>
+    </row>
+    <row r="234" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L234" s="6"/>
+    </row>
+    <row r="235" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L235" s="6"/>
+    </row>
+    <row r="236" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L236" s="6"/>
+    </row>
+    <row r="237" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L237" s="6"/>
+    </row>
+    <row r="238" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L238" s="6"/>
+    </row>
+    <row r="239" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L239" s="6"/>
+    </row>
+    <row r="240" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L240" s="6"/>
+    </row>
+    <row r="241" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L241" s="6"/>
+    </row>
+    <row r="242" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L242" s="6"/>
+    </row>
+    <row r="243" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L243" s="6"/>
+    </row>
+    <row r="244" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A244" t="s">
+        <v>22</v>
+      </c>
+      <c r="L244" s="6"/>
+    </row>
+    <row r="245" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L245" s="6"/>
+    </row>
+    <row r="246" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L246" s="6"/>
+    </row>
+    <row r="247" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L247" s="6"/>
+    </row>
+    <row r="248" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L248" s="6"/>
+    </row>
+    <row r="249" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L249" s="6"/>
+    </row>
+    <row r="250" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L250" s="6"/>
+    </row>
+    <row r="251" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L251" s="6"/>
+    </row>
+    <row r="252" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L252" s="6"/>
+    </row>
+    <row r="253" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L253" s="6"/>
+    </row>
+    <row r="254" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L254" s="6"/>
+    </row>
+    <row r="255" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L255" s="6"/>
+    </row>
+    <row r="256" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L256" s="6"/>
+    </row>
+    <row r="257" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L257" s="6"/>
+    </row>
+    <row r="258" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L258" s="6"/>
+    </row>
+    <row r="259" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L259" s="6"/>
+    </row>
+    <row r="260" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L260" s="6"/>
+    </row>
+    <row r="261" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L261" s="6"/>
+    </row>
+    <row r="262" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A262" t="s">
+        <v>23</v>
+      </c>
+      <c r="L262" s="6"/>
+    </row>
+    <row r="263" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L263" s="6"/>
+    </row>
+    <row r="264" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L264" s="6"/>
+    </row>
+    <row r="265" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L265" s="6"/>
+    </row>
+    <row r="266" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L266" s="6"/>
+    </row>
+    <row r="267" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L267" s="6"/>
+    </row>
+    <row r="268" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L268" s="6"/>
+    </row>
+    <row r="269" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L269" s="6"/>
+    </row>
+    <row r="270" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L270" s="6"/>
+    </row>
+    <row r="271" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L271" s="6"/>
+    </row>
+    <row r="272" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L272" s="6"/>
+    </row>
+    <row r="273" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L273" s="6"/>
+    </row>
+    <row r="274" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L274" s="6"/>
+    </row>
+    <row r="275" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L275" s="6"/>
+    </row>
+    <row r="276" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L276" s="6"/>
+    </row>
+    <row r="277" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A277" t="s">
+        <v>24</v>
+      </c>
+      <c r="L277" s="6"/>
+    </row>
+    <row r="278" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L278" s="6"/>
+    </row>
+    <row r="279" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L279" s="6"/>
+    </row>
+    <row r="280" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L280" s="6"/>
+    </row>
+    <row r="281" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L281" s="6"/>
+    </row>
+    <row r="282" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L282" s="6"/>
+    </row>
+    <row r="283" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L283" s="6"/>
+    </row>
+    <row r="284" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L284" s="6"/>
+    </row>
+    <row r="285" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L285" s="6"/>
+    </row>
+    <row r="286" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L286" s="6"/>
+    </row>
+    <row r="287" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L287" s="6"/>
+    </row>
+    <row r="288" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L288" s="6"/>
+    </row>
+    <row r="289" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L289" s="6"/>
+    </row>
+    <row r="290" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L290" s="6"/>
+    </row>
+    <row r="291" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L291" s="6"/>
+    </row>
+    <row r="292" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L292" s="6"/>
+    </row>
+    <row r="293" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A293" t="s">
+        <v>25</v>
+      </c>
+      <c r="L293" s="6"/>
+    </row>
+    <row r="294" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L294" s="6"/>
+    </row>
+    <row r="295" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L295" s="6"/>
+    </row>
+    <row r="296" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L296" s="6"/>
+    </row>
+    <row r="297" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L297" s="6"/>
+    </row>
+    <row r="298" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L298" s="6"/>
+    </row>
+    <row r="299" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L299" s="6"/>
+    </row>
+    <row r="300" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L300" s="6"/>
+    </row>
+    <row r="301" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L301" s="6"/>
+    </row>
+    <row r="302" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L302" s="6"/>
+    </row>
+    <row r="303" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L303" s="6"/>
+    </row>
+    <row r="304" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L304" s="6"/>
+    </row>
+    <row r="305" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L305" s="6"/>
+    </row>
+    <row r="306" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L306" s="6"/>
+    </row>
+    <row r="307" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L307" s="6"/>
+    </row>
+    <row r="308" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L308" s="6"/>
+    </row>
+    <row r="309" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A309" s="4"/>
+      <c r="B309" s="4"/>
+      <c r="C309" s="4"/>
+      <c r="D309" s="4"/>
+      <c r="E309" s="4"/>
+      <c r="F309" s="4"/>
+      <c r="G309" s="4"/>
+      <c r="H309" s="4"/>
+      <c r="I309" s="4"/>
+      <c r="J309" s="4"/>
+      <c r="K309" s="4"/>
+      <c r="L309" s="5"/>
+    </row>
+    <row r="310" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A310" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B310" s="4"/>
+      <c r="C310" s="4"/>
+      <c r="D310" s="4"/>
+      <c r="E310" s="4"/>
+      <c r="F310" s="4"/>
+      <c r="G310" s="4"/>
+      <c r="H310" s="4"/>
+      <c r="I310" s="4"/>
+      <c r="J310" s="4"/>
+      <c r="K310" s="4"/>
+      <c r="L310" s="5"/>
+    </row>
+    <row r="311" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L311" s="6"/>
+    </row>
+    <row r="312" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A312" t="s">
+        <v>4</v>
+      </c>
+      <c r="L312" s="6"/>
+    </row>
+    <row r="313" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L313" s="6"/>
+    </row>
+    <row r="314" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L314" s="6"/>
+    </row>
+    <row r="315" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L315" s="6"/>
+    </row>
+    <row r="316" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L316" s="6"/>
+    </row>
+    <row r="317" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L317" s="6"/>
+    </row>
+    <row r="318" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L318" s="6"/>
+    </row>
+    <row r="319" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L319" s="6"/>
+    </row>
+    <row r="320" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L320" s="6"/>
+    </row>
+    <row r="321" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L321" s="6"/>
+    </row>
+    <row r="322" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L322" s="6"/>
+    </row>
+    <row r="323" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L323" s="6"/>
+    </row>
+    <row r="324" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L324" s="6"/>
+    </row>
+    <row r="325" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L325" s="6"/>
+    </row>
+    <row r="326" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L326" s="6"/>
+    </row>
+    <row r="327" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L327" s="6"/>
+    </row>
+    <row r="328" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L328" s="6"/>
+    </row>
+    <row r="329" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L329" s="6"/>
+    </row>
+    <row r="330" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L330" s="6"/>
+    </row>
+    <row r="331" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L331" s="6"/>
+    </row>
+    <row r="332" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L332" s="6"/>
+    </row>
+    <row r="333" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L333" s="6"/>
+    </row>
+    <row r="334" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A334" t="s">
+        <v>5</v>
+      </c>
+      <c r="L334" s="6"/>
+    </row>
+    <row r="335" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L335" s="6"/>
+    </row>
+    <row r="336" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L336" s="6"/>
+    </row>
+    <row r="337" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L337" s="6"/>
+    </row>
+    <row r="338" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L338" s="6"/>
+    </row>
+    <row r="339" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L339" s="6"/>
+    </row>
+    <row r="340" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L340" s="6"/>
+    </row>
+    <row r="341" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L341" s="6"/>
+    </row>
+    <row r="342" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L342" s="6"/>
+    </row>
+    <row r="343" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L343" s="6"/>
+    </row>
+    <row r="344" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L344" s="6"/>
+    </row>
+    <row r="345" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L345" s="6"/>
+    </row>
+    <row r="346" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L346" s="6"/>
+    </row>
+    <row r="347" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L347" s="6"/>
+    </row>
+    <row r="348" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A348" s="4"/>
+      <c r="B348" s="4"/>
+      <c r="C348" s="4"/>
+      <c r="D348" s="4"/>
+      <c r="E348" s="4"/>
+      <c r="F348" s="4"/>
+      <c r="G348" s="4"/>
+      <c r="H348" s="4"/>
+      <c r="I348" s="4"/>
+      <c r="J348" s="4"/>
+      <c r="K348" s="4"/>
+      <c r="L348" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="A4" r:id="rId1" xr:uid="{758FFD21-4167-4AD9-8B24-B50CF11468C4}"/>
+    <hyperlink ref="A50" r:id="rId2" xr:uid="{D0A330CF-5AF6-4BC1-8829-80F942882542}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82F37D6A-EC3B-49B9-8A10-1744850371A7}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0056C8EF-7051-4434-8E7C-D4E89464A8A9}">
+  <dimension ref="A1:L240"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A33" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="5"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L3" s="6"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="L4" s="6"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L5" s="6"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L6" s="6"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L7" s="6"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L8" s="6"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L9" s="6"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L10" s="6"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L11" s="6"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L12" s="6"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L13" s="6"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L14" s="6"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="L15" s="6"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L16" s="6"/>
+    </row>
+    <row r="17" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L17" s="6"/>
+    </row>
+    <row r="18" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L18" s="6"/>
+    </row>
+    <row r="19" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L19" s="6"/>
+    </row>
+    <row r="20" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L20" s="6"/>
+    </row>
+    <row r="21" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L21" s="6"/>
+    </row>
+    <row r="22" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L22" s="6"/>
+    </row>
+    <row r="23" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L23" s="6"/>
+    </row>
+    <row r="24" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L24" s="6"/>
+    </row>
+    <row r="25" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L25" s="6"/>
+    </row>
+    <row r="26" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L26" s="6"/>
+    </row>
+    <row r="27" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L27" s="6"/>
+    </row>
+    <row r="28" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L28" s="6"/>
+    </row>
+    <row r="29" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L29" s="6"/>
+    </row>
+    <row r="30" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L30" s="6"/>
+    </row>
+    <row r="31" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L31" s="6"/>
+    </row>
+    <row r="32" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L32" s="6"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L33" s="6"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L34" s="6"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L35" s="6"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L36" s="6"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L37" s="6"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L38" s="6"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L39" s="6"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L40" s="6"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L41" s="6"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L42" s="6"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>13</v>
+      </c>
+      <c r="L43" s="6"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L44" s="6"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>7</v>
+      </c>
+      <c r="L45" s="6"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L46" s="6"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="5"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A48" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="5"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L49" s="6"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A50" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="L50" s="6"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L51" s="6"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L52" s="6"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L53" s="6"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L54" s="6"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L55" s="6"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L56" s="6"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L57" s="6"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L58" s="6"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L59" s="6"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L60" s="6"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L61" s="6"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L62" s="6"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L63" s="6"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L64" s="6"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A65" t="s">
+        <v>9</v>
+      </c>
+      <c r="L65" s="6"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L66" s="6"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L67" s="6"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L68" s="6"/>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L69" s="6"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L70" s="6"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L71" s="6"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L72" s="6"/>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L73" s="6"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L74" s="6"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L75" s="6"/>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L76" s="6"/>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L77" s="6"/>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L78" s="6"/>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L79" s="6"/>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L80" s="6"/>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L81" s="6"/>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A82" t="s">
+        <v>15</v>
+      </c>
+      <c r="L82" s="6"/>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L83" s="6"/>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L84" s="6"/>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L85" s="6"/>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L86" s="6"/>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L87" s="6"/>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L88" s="6"/>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L89" s="6"/>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L90" s="6"/>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L91" s="6"/>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L92" s="6"/>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L93" s="6"/>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L94" s="6"/>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L95" s="6"/>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L96" s="6"/>
+    </row>
+    <row r="97" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L97" s="6"/>
+    </row>
+    <row r="98" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L98" s="6"/>
+    </row>
+    <row r="99" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L99" s="6"/>
+    </row>
+    <row r="100" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L100" s="6"/>
+    </row>
+    <row r="101" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L101" s="6"/>
+    </row>
+    <row r="102" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L102" s="6"/>
+    </row>
+    <row r="103" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L103" s="6"/>
+    </row>
+    <row r="104" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L104" s="6"/>
+    </row>
+    <row r="105" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L105" s="6"/>
+    </row>
+    <row r="106" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L106" s="6"/>
+    </row>
+    <row r="107" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L107" s="6"/>
+    </row>
+    <row r="108" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L108" s="6"/>
+    </row>
+    <row r="109" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L109" s="6"/>
+    </row>
+    <row r="110" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L110" s="6"/>
+    </row>
+    <row r="111" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L111" s="6"/>
+    </row>
+    <row r="112" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L112" s="6"/>
+    </row>
+    <row r="113" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L113" s="6"/>
+    </row>
+    <row r="114" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L114" s="6"/>
+    </row>
+    <row r="115" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L115" s="6"/>
+    </row>
+    <row r="116" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L116" s="6"/>
+    </row>
+    <row r="117" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L117" s="6"/>
+    </row>
+    <row r="118" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L118" s="6"/>
+    </row>
+    <row r="119" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L119" s="6"/>
+    </row>
+    <row r="120" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L120" s="6"/>
+    </row>
+    <row r="121" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L121" s="6"/>
+    </row>
+    <row r="122" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L122" s="6"/>
+    </row>
+    <row r="123" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L123" s="6"/>
+    </row>
+    <row r="124" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L124" s="6"/>
+    </row>
+    <row r="125" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L125" s="6"/>
+    </row>
+    <row r="126" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L126" s="6"/>
+    </row>
+    <row r="127" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L127" s="6"/>
+    </row>
+    <row r="128" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L128" s="6"/>
+    </row>
+    <row r="129" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L129" s="6"/>
+    </row>
+    <row r="130" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L130" s="6"/>
+    </row>
+    <row r="131" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L131" s="6"/>
+    </row>
+    <row r="132" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L132" s="6"/>
+    </row>
+    <row r="133" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L133" s="6"/>
+    </row>
+    <row r="134" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L134" s="6"/>
+    </row>
+    <row r="135" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L135" s="6"/>
+    </row>
+    <row r="136" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L136" s="6"/>
+    </row>
+    <row r="137" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L137" s="6"/>
+    </row>
+    <row r="138" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L138" s="6"/>
+    </row>
+    <row r="139" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L139" s="6"/>
+    </row>
+    <row r="140" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L140" s="6"/>
+    </row>
+    <row r="141" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L141" s="6"/>
+    </row>
+    <row r="142" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L142" s="6"/>
+    </row>
+    <row r="143" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L143" s="6"/>
+    </row>
+    <row r="144" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L144" s="6"/>
+    </row>
+    <row r="145" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L145" s="6"/>
+    </row>
+    <row r="146" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L146" s="6"/>
+    </row>
+    <row r="147" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L147" s="6"/>
+    </row>
+    <row r="148" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L148" s="6"/>
+    </row>
+    <row r="149" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L149" s="6"/>
+    </row>
+    <row r="150" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L150" s="6"/>
+    </row>
+    <row r="151" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L151" s="6"/>
+    </row>
+    <row r="152" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L152" s="6"/>
+    </row>
+    <row r="153" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L153" s="6"/>
+    </row>
+    <row r="154" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L154" s="6"/>
+    </row>
+    <row r="155" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L155" s="6"/>
+    </row>
+    <row r="156" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L156" s="6"/>
+    </row>
+    <row r="157" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L157" s="6"/>
+    </row>
+    <row r="158" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L158" s="6"/>
+    </row>
+    <row r="159" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L159" s="6"/>
+    </row>
+    <row r="160" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L160" s="6"/>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L161" s="6"/>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L162" s="6"/>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L163" s="6"/>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L164" s="6"/>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L165" s="6"/>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L166" s="6"/>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L167" s="6"/>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L168" s="6"/>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L169" s="6"/>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A170" t="s">
+        <v>11</v>
+      </c>
+      <c r="L170" s="6"/>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A171" t="s">
+        <v>12</v>
+      </c>
+      <c r="L171" s="6"/>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L172" s="6"/>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L173" s="6"/>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L174" s="6"/>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L175" s="6"/>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L176" s="6"/>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L177" s="6"/>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L178" s="6"/>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L179" s="6"/>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L180" s="6"/>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L181" s="6"/>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L182" s="6"/>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L183" s="6"/>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L184" s="6"/>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L185" s="6"/>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L186" s="6"/>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L187" s="6"/>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A188" t="s">
+        <v>10</v>
+      </c>
+      <c r="L188" s="6"/>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L189" s="6"/>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L190" s="6"/>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L191" s="6"/>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L192" s="6"/>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L193" s="6"/>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L194" s="6"/>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L195" s="6"/>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L196" s="6"/>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L197" s="6"/>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L198" s="6"/>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L199" s="6"/>
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L200" s="6"/>
+    </row>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A201" s="4"/>
+      <c r="B201" s="4"/>
+      <c r="C201" s="4"/>
+      <c r="D201" s="4"/>
+      <c r="E201" s="4"/>
+      <c r="F201" s="4"/>
+      <c r="G201" s="4"/>
+      <c r="H201" s="4"/>
+      <c r="I201" s="4"/>
+      <c r="J201" s="4"/>
+      <c r="K201" s="4"/>
+      <c r="L201" s="5"/>
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A202" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B202" s="4"/>

--- a/docs/開発環境構築手順/ポーカー開発環境構築手順.xlsx
+++ b/docs/開発環境構築手順/ポーカー開発環境構築手順.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OWNER\Downloads\pleiades-4.8.0-java-win-64bit-jre_20180923\pleiades\workspace\poker\docs\開発環境構築手順\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B63F32A1-6E8E-4106-AA76-9D063D6A334C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61C89F54-F8F0-4CAA-86E7-1E0F81DEEC42}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{569B4C10-2D2E-422C-881C-247CD6F9FE90}"/>
   </bookViews>
   <sheets>
-    <sheet name="開発環境構築手順" sheetId="8" r:id="rId1"/>
+    <sheet name="開発環境構築手順" sheetId="9" r:id="rId1"/>
     <sheet name="BK" sheetId="7" r:id="rId2"/>
-    <sheet name="開発環境構築手順(3月10日時点)" sheetId="6" r:id="rId3"/>
+    <sheet name="開発環境構築手順(3月11日時点)" sheetId="8" r:id="rId3"/>
+    <sheet name="開発環境構築手順(3月10日時点)" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="29">
   <si>
     <t>手順</t>
     <rPh sb="0" eb="2">
@@ -249,6 +250,48 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>(1)Pokerプロジェクトを右クリックして、表示されるメニューの「maven -&gt; プロジェクトの更新」をクリックする。</t>
+    <rPh sb="15" eb="16">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(2)Pokerプロジェクトの「Maven依存関係」から「lombok-1.18.6.jar」を探して、どのフォルダにあるかを確認する。</t>
+    <rPh sb="21" eb="23">
+      <t>イゾン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>カンケイ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>サガ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(3)(2)で確認したパスにある、「lombok-1.18.6.jar」をダブルクリックして、以下のダイアログを表示する。</t>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -408,10 +451,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="図 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77E0115E-DDDB-494D-80A2-B565D9840543}"/>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D562F298-1A20-4766-9270-10BE0225F542}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -482,10 +525,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="図 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A658D2A-770B-402E-867C-06E640A8A6B1}"/>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36D7B524-2167-4A70-849E-9DC2A495188B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -540,10 +583,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="吹き出し: 四角形 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45E464B6-D95A-4CCD-BC57-B42D24B964B4}"/>
+        <xdr:cNvPr id="4" name="吹き出し: 四角形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{813ABC29-72F9-4CFC-A2F2-D2772D677BDB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -663,10 +706,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="図 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{379442ED-A04B-477F-B2F2-1CD974BA73F4}"/>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29FFFF93-4773-452E-9355-34939E40AC6B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -737,10 +780,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="正方形/長方形 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17968B85-2AFA-4309-8C71-870269A3D982}"/>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1EC96C2-09B5-4166-88BB-C33BE63CECA6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -803,10 +846,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="矢印: 下 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76D295E9-FC92-4122-B9F2-99BA608EB201}"/>
+        <xdr:cNvPr id="7" name="矢印: 下 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B94494A6-130B-4807-8740-DC975D552531}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -863,10 +906,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="図 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78472453-2DB2-4BB7-B4DE-8784FF79DE16}"/>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C6B7A2A-413A-450B-940D-1CF7945FF385}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -921,10 +964,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="吹き出し: 四角形 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C526B96-C825-40D1-AB91-FB1C69141D95}"/>
+        <xdr:cNvPr id="9" name="吹き出し: 四角形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B5B511B-59E0-4A89-8CA8-8F39515974FF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1032,10 +1075,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="図 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9328446-A542-4156-8000-F18FF1F82F3C}"/>
+        <xdr:cNvPr id="10" name="図 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3929406-02CF-4476-B397-DA0A3C0AD47D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1090,10 +1133,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="正方形/長方形 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F32C139-C274-4F6E-B7FC-6E3947AE03D4}"/>
+        <xdr:cNvPr id="11" name="正方形/長方形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96111327-2F9B-4648-AF1A-A76264685839}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1156,10 +1199,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="正方形/長方形 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FF08B57-29C1-4F2A-BB0B-B2ED7F705F40}"/>
+        <xdr:cNvPr id="12" name="正方形/長方形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{160A8A41-2C34-4DF5-8E7A-2F09445C1150}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1222,10 +1265,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="吹き出し: 四角形 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{674F8CE9-1DED-4A4C-9192-BBFBEE6D2CF5}"/>
+        <xdr:cNvPr id="13" name="吹き出し: 四角形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA10BD48-EB83-4B7E-9DB1-863765F7BE47}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1305,10 +1348,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="図 20">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD8A2D42-27C8-4128-AC4E-B72417BE2142}"/>
+        <xdr:cNvPr id="14" name="図 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB01B480-3904-4061-AF3C-A16F72C50835}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1363,10 +1406,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="図 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{131D97AA-4A76-43CF-81DE-3D18359EE0B0}"/>
+        <xdr:cNvPr id="15" name="図 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0243BF49-B9D2-4454-A790-4DB02DE2E45D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1421,10 +1464,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="図 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB947572-A265-4660-BD4D-591EB2D14AC1}"/>
+        <xdr:cNvPr id="16" name="図 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB0FB7E3-87BE-453C-ACCB-2987B025D471}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1479,10 +1522,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="正方形/長方形 23">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6640B031-1CCA-47CC-9FF4-4CDCEFA5F01B}"/>
+        <xdr:cNvPr id="17" name="正方形/長方形 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AD608CB-F0FD-4109-8A18-7433CBB5FC52}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1545,10 +1588,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="矢印: 下 24">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD79DEDD-402D-4E6A-8026-E99421BD546E}"/>
+        <xdr:cNvPr id="18" name="矢印: 下 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25D26379-EBE3-4ECD-AB8F-66B1132A5191}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1605,10 +1648,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="正方形/長方形 25">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10A7F188-B754-43BE-B64C-B9617E0A4E29}"/>
+        <xdr:cNvPr id="19" name="正方形/長方形 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8820D199-75E6-4FED-BFD8-CB0CBA855699}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1671,10 +1714,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="矢印: 下 26">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{644E72A7-5250-4C65-850A-96211F77BB7F}"/>
+        <xdr:cNvPr id="20" name="矢印: 下 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{490D53EF-B7BA-4815-97F2-E84B46D81AAF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1731,10 +1774,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="吹き出し: 四角形 27">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{144AB81B-9DD0-4280-918B-BBF6EE7D28A5}"/>
+        <xdr:cNvPr id="21" name="吹き出し: 四角形 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AA7E518-6001-4E4A-AC22-C48853EE6F0F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1806,10 +1849,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="吹き出し: 四角形 28">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4569AE0-32D7-4446-ACDC-9938F1E8E891}"/>
+        <xdr:cNvPr id="22" name="吹き出し: 四角形 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{498A20BC-4B16-4474-ABFF-B16CE3812C02}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1877,10 +1920,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="吹き出し: 四角形 29">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95928B96-85A0-4085-82DB-9ADE4B4403D1}"/>
+        <xdr:cNvPr id="23" name="吹き出し: 四角形 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58186F24-E4EA-4DED-BA6D-D8110EF089F0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1944,10 +1987,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="31" name="図 30">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76597057-B782-424F-9984-12F649C08291}"/>
+        <xdr:cNvPr id="24" name="図 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{912A270E-823E-4884-B67B-18B298648514}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2002,10 +2045,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="矢印: 下 31">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23CA28C9-7E8F-4434-A130-E9C05865F67D}"/>
+        <xdr:cNvPr id="25" name="矢印: 下 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{889F959F-7342-4836-B761-926C408FDB69}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2062,10 +2105,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="矢印: 下 32">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3E8E228-CB36-410A-9052-444715EECD9B}"/>
+        <xdr:cNvPr id="26" name="矢印: 下 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFF7A0D1-5D06-4B9A-AA1F-55CF22AB4807}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2122,10 +2165,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="吹き出し: 四角形 33">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F12E2305-3D11-4F80-A010-4038F4F12D77}"/>
+        <xdr:cNvPr id="27" name="吹き出し: 四角形 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC331C00-1A21-449C-B58B-EE0EBC07D380}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2189,10 +2232,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="35" name="図 34">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C934592-7487-462C-BE12-E73E9B6961A6}"/>
+        <xdr:cNvPr id="28" name="図 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D072C03D-88D6-480D-927D-AA989F91740F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2247,10 +2290,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="吹き出し: 四角形 35">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A1AF1E6-01ED-41ED-8511-FAA87DE7E4D1}"/>
+        <xdr:cNvPr id="29" name="吹き出し: 四角形 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB7F720A-D01F-4FB8-8476-C59E6439B7F9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2314,10 +2357,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="37" name="図 36">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B73D5844-3387-4115-92AB-A4928696B887}"/>
+        <xdr:cNvPr id="30" name="図 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D52D568F-B6BE-4252-8FAD-FD6BC18526BB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2372,10 +2415,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="38" name="図 37">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F2C8E6B-FB67-4595-BE73-61F1FB71289E}"/>
+        <xdr:cNvPr id="31" name="図 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAF3C97C-219C-4DD4-8BED-2283FB89D088}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2430,10 +2473,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="39" name="吹き出し: 四角形 38">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF8975D0-6AAE-4A89-A989-E6AD62805F07}"/>
+        <xdr:cNvPr id="32" name="吹き出し: 四角形 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED89052F-5F6F-41C1-9CAF-F91C0A0E056B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2497,10 +2540,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="矢印: 右 39">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{537A0C3D-F966-4918-A2E4-B3B8B2E5E0D1}"/>
+        <xdr:cNvPr id="33" name="矢印: 右 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20A0F7A0-F724-4D96-B924-C3EAC4E5DA18}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2557,10 +2600,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="吹き出し: 四角形 40">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D918D61C-8D68-4AA0-873E-D4BD0D5AF75A}"/>
+        <xdr:cNvPr id="34" name="吹き出し: 四角形 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F77F8B8-A0D4-434B-BD6A-6F5839CA4CA6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2628,10 +2671,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="吹き出し: 四角形 41">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BC2B6BD-23F4-4ECD-9325-53F9BA030FD1}"/>
+        <xdr:cNvPr id="35" name="吹き出し: 四角形 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E281F2ED-D031-44C7-A68F-27AEF51E4170}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2710,10 +2753,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="正方形/長方形 42">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1A07BFB-001D-451A-814E-AB5ACE6B5593}"/>
+        <xdr:cNvPr id="36" name="正方形/長方形 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75458B61-EF70-4D13-8B9A-986C17169F90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2776,10 +2819,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="44" name="図 43">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07A24D36-6ACD-48FD-A862-0C62042AADC8}"/>
+        <xdr:cNvPr id="37" name="図 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4ADC2EF-AAE6-4C8A-B667-D4A0EAD8A200}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2834,10 +2877,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="45" name="図 44">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2693481-CF49-48DB-890B-E3A19BEA66A8}"/>
+        <xdr:cNvPr id="38" name="図 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78B8DC04-2B60-4BC1-82CB-0B13BDA6A0F7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2892,10 +2935,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="矢印: 下 45">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA93405F-8DA7-4006-B330-917BEF9210DE}"/>
+        <xdr:cNvPr id="39" name="矢印: 下 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C28CC09-60B0-497C-B008-72CEE8BDE3A6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2952,10 +2995,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="47" name="吹き出し: 四角形 46">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06594A5B-30DA-451F-9D6A-86E12CE7221A}"/>
+        <xdr:cNvPr id="40" name="吹き出し: 四角形 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C23D4273-0CFC-40B2-BD83-C05CCCD50449}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3027,10 +3070,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="48" name="吹き出し: 四角形 47">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D285C70-34A7-4402-9C49-C34F9D6005BD}"/>
+        <xdr:cNvPr id="41" name="吹き出し: 四角形 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE359FFE-8593-47D1-BEA0-965171AA9B94}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3109,10 +3152,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="50" name="正方形/長方形 49">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4DB2DAE-52B0-45CA-B906-7428B4CCBED4}"/>
+        <xdr:cNvPr id="42" name="正方形/長方形 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C523D695-F8C4-4284-80C6-F24F1D906922}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3175,10 +3218,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="51" name="正方形/長方形 50">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA0F3BA2-5BD8-48A4-846D-40EF1705AF39}"/>
+        <xdr:cNvPr id="43" name="正方形/長方形 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{670D1BFD-D086-4BF8-94F7-7DAD5082273D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3241,10 +3284,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="52" name="正方形/長方形 51">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D385B8BB-98B7-40F4-9D26-AC54991ACB4E}"/>
+        <xdr:cNvPr id="44" name="正方形/長方形 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFA0D778-1244-48AB-B37D-AFEC5B4CA252}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3296,16 +3339,16 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>487680</xdr:colOff>
-      <xdr:row>312</xdr:row>
+      <xdr:row>328</xdr:row>
       <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3094330" cy="2865120"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="53" name="図 52">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA3BC00A-D1C1-4A18-BB9F-5E3681219A64}"/>
+        <xdr:cNvPr id="45" name="図 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E0FE1F0-6881-409A-B1EF-959A6678E629}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3328,7 +3371,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="487680" y="46809660"/>
+          <a:off x="487680" y="71498460"/>
           <a:ext cx="3094330" cy="2865120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3365,16 +3408,16 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>632460</xdr:colOff>
-      <xdr:row>312</xdr:row>
+      <xdr:row>328</xdr:row>
       <xdr:rowOff>48972</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2504562" cy="4131655"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="54" name="図 53">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64F0ABBB-B197-4CD6-948C-37A294EC8931}"/>
+        <xdr:cNvPr id="46" name="図 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22ABAF76-BB7B-48F6-B4B0-944E10F5CC70}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3390,7 +3433,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4655820" y="46683372"/>
+          <a:off x="4655820" y="71372172"/>
           <a:ext cx="2504562" cy="4131655"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3404,21 +3447,21 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>175260</xdr:colOff>
-      <xdr:row>320</xdr:row>
+      <xdr:row>336</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>320</xdr:row>
+      <xdr:row>336</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="55" name="正方形/長方形 54">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09774342-5FE9-4827-916F-EA17D4FB4DF3}"/>
+        <xdr:cNvPr id="47" name="正方形/長方形 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12DB614C-1BB4-449D-8B9A-4F7F25043936}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3426,7 +3469,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="845820" y="48531780"/>
+          <a:off x="845820" y="73220580"/>
           <a:ext cx="1066800" cy="121920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3470,21 +3513,21 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>624840</xdr:colOff>
-      <xdr:row>328</xdr:row>
+      <xdr:row>344</xdr:row>
       <xdr:rowOff>205740</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>220980</xdr:colOff>
-      <xdr:row>329</xdr:row>
+      <xdr:row>345</xdr:row>
       <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="56" name="正方形/長方形 55">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1369301E-6B57-4A0D-8972-D3CBED2A1733}"/>
+        <xdr:cNvPr id="48" name="正方形/長方形 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B66E5A21-A38D-4DEC-8EFE-D50DE374C20E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3492,7 +3535,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4648200" y="50497740"/>
+          <a:off x="4648200" y="75186540"/>
           <a:ext cx="2278380" cy="121920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3536,21 +3579,21 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>121920</xdr:colOff>
-      <xdr:row>321</xdr:row>
+      <xdr:row>337</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>325</xdr:row>
+      <xdr:row>341</xdr:row>
       <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="57" name="吹き出し: 四角形 56">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4902F94C-1F76-48B2-8091-730A0DBD4DE1}"/>
+        <xdr:cNvPr id="49" name="吹き出し: 四角形 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F3025E3-923D-433A-B1D8-74B186F1B19A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3558,7 +3601,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2133600" y="48844200"/>
+          <a:off x="2133600" y="73533000"/>
           <a:ext cx="1950720" cy="937260"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
@@ -3607,21 +3650,21 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>640080</xdr:colOff>
-      <xdr:row>318</xdr:row>
+      <xdr:row>334</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>388620</xdr:colOff>
-      <xdr:row>320</xdr:row>
+      <xdr:row>336</xdr:row>
       <xdr:rowOff>149352</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="58" name="矢印: 右 57">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{359BD0C3-B9B4-4218-B5DC-2AA8FEEDDEDB}"/>
+        <xdr:cNvPr id="50" name="矢印: 右 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FED0EB26-940F-4534-BF8C-073414605875}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3629,7 +3672,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3992880" y="48127920"/>
+          <a:off x="3992880" y="72816720"/>
           <a:ext cx="419100" cy="484632"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
@@ -3667,16 +3710,16 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>220980</xdr:colOff>
-      <xdr:row>335</xdr:row>
+      <xdr:row>351</xdr:row>
       <xdr:rowOff>23458</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5162269" cy="2402495"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="59" name="図 58">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8A221C1-4DC8-4297-857F-87B6C5460A55}"/>
+        <xdr:cNvPr id="51" name="図 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39EB7F4C-4865-4585-BA1C-81FE32FFE3B3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3692,7 +3735,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="891540" y="51915658"/>
+          <a:off x="891540" y="76604458"/>
           <a:ext cx="5162269" cy="2402495"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3718,23 +3761,23 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>570726</xdr:colOff>
-      <xdr:row>204</xdr:row>
-      <xdr:rowOff>220980</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>188646</xdr:colOff>
-      <xdr:row>215</xdr:row>
-      <xdr:rowOff>107798</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>236</xdr:row>
+      <xdr:rowOff>134441</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>652453</xdr:colOff>
+      <xdr:row>240</xdr:row>
+      <xdr:rowOff>28371</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="60" name="図 59">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C70CCEAE-3527-4CBF-890F-2330CE18FA12}"/>
+        <xdr:cNvPr id="53" name="図 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7112926F-1380-48B0-A192-0B464D6BA07B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3750,8 +3793,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="570726" y="46855380"/>
-          <a:ext cx="5652960" cy="2401418"/>
+          <a:off x="861060" y="50426441"/>
+          <a:ext cx="3814753" cy="808330"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3776,23 +3819,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>220</xdr:row>
-      <xdr:rowOff>134441</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>652453</xdr:colOff>
-      <xdr:row>224</xdr:row>
-      <xdr:rowOff>28371</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>244</xdr:row>
+      <xdr:rowOff>205740</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>257</xdr:row>
+      <xdr:rowOff>23784</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="61" name="図 60">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8694B8E7-B0A9-4379-A17B-26F54F3DE644}"/>
+        <xdr:cNvPr id="54" name="図 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8824B0EE-4C66-489C-B368-2F35CCCA4CC1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3808,8 +3851,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="861060" y="50426441"/>
-          <a:ext cx="3814753" cy="808330"/>
+          <a:off x="236220" y="52326540"/>
+          <a:ext cx="4831080" cy="2789844"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3835,22 +3878,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>236220</xdr:colOff>
-      <xdr:row>228</xdr:row>
-      <xdr:rowOff>205740</xdr:rowOff>
+      <xdr:colOff>650488</xdr:colOff>
+      <xdr:row>261</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>373380</xdr:colOff>
-      <xdr:row>241</xdr:row>
-      <xdr:rowOff>23784</xdr:rowOff>
+      <xdr:colOff>545855</xdr:colOff>
+      <xdr:row>275</xdr:row>
+      <xdr:rowOff>71769</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="62" name="図 61">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2C16D26-9CEC-45C9-BE13-D706B5C500F7}"/>
+        <xdr:cNvPr id="55" name="図 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A91BC58-0AD3-42CC-BACF-3E2AAC3BA7C3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3866,8 +3909,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="236220" y="52326540"/>
-          <a:ext cx="4831080" cy="2789844"/>
+          <a:off x="650488" y="56037480"/>
+          <a:ext cx="4589287" cy="3241689"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3890,25 +3933,91 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>253</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>254</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="正方形/長方形 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13F62851-0369-40D2-BE90-2396629750B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1089660" y="54368700"/>
+          <a:ext cx="708660" cy="144780"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>650488</xdr:colOff>
-      <xdr:row>245</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:colOff>593754</xdr:colOff>
+      <xdr:row>278</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>545855</xdr:colOff>
-      <xdr:row>259</xdr:row>
-      <xdr:rowOff>71769</xdr:rowOff>
+      <xdr:colOff>503590</xdr:colOff>
+      <xdr:row>290</xdr:row>
+      <xdr:rowOff>24063</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="64" name="図 63">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8666ADBB-74FE-4B1F-80AC-C72B4E05182A}"/>
+        <xdr:cNvPr id="57" name="図 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCD3D1F1-748D-4C96-9336-35166A3765B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3924,8 +4033,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="650488" y="59466480"/>
-          <a:ext cx="4589287" cy="3241689"/>
+          <a:off x="593754" y="60045600"/>
+          <a:ext cx="4603756" cy="2614863"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3950,23 +4059,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>237</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>238</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>464214</xdr:colOff>
+      <xdr:row>287</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>502314</xdr:colOff>
+      <xdr:row>287</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="67" name="正方形/長方形 66">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C46C794-FBA7-40FA-9930-00E63895A13A}"/>
+        <xdr:cNvPr id="58" name="正方形/長方形 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C4722C1-62E8-4764-8A73-A800C0DC4BF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3974,7 +4083,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1089660" y="54368700"/>
+          <a:off x="4487574" y="61973460"/>
           <a:ext cx="708660" cy="144780"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4016,23 +4125,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>593754</xdr:colOff>
-      <xdr:row>262</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>503590</xdr:colOff>
-      <xdr:row>274</xdr:row>
-      <xdr:rowOff>24063</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>293</xdr:row>
+      <xdr:rowOff>179334</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>522651</xdr:colOff>
+      <xdr:row>307</xdr:row>
+      <xdr:rowOff>31669</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="70" name="図 69">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50548FFB-1859-4B33-A9B2-F4CB5F9DF135}"/>
+        <xdr:cNvPr id="59" name="図 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{727B0A75-0867-4A1B-87AF-255522C51E7F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4048,8 +4157,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="593754" y="59817000"/>
-          <a:ext cx="4603756" cy="2614863"/>
+          <a:off x="670560" y="63501534"/>
+          <a:ext cx="5216571" cy="3052735"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4074,23 +4183,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>464214</xdr:colOff>
-      <xdr:row>271</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>502314</xdr:colOff>
-      <xdr:row>271</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>306</xdr:row>
+      <xdr:rowOff>49794</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>306</xdr:row>
+      <xdr:rowOff>194574</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="71" name="正方形/長方形 70">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B779496-16AA-4AB1-9C02-45BB07E465E4}"/>
+        <xdr:cNvPr id="60" name="正方形/長方形 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A1A16F9-0B55-4E1B-8414-5AD8B1D285AA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4098,7 +4207,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4487574" y="61744860"/>
+          <a:off x="5196840" y="66343794"/>
           <a:ext cx="708660" cy="144780"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4141,22 +4250,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>277</xdr:row>
-      <xdr:rowOff>179334</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>522651</xdr:colOff>
-      <xdr:row>291</xdr:row>
-      <xdr:rowOff>31669</xdr:rowOff>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>309</xdr:row>
+      <xdr:rowOff>171412</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>258589</xdr:colOff>
+      <xdr:row>323</xdr:row>
+      <xdr:rowOff>163103</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="72" name="図 71">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B219DC96-6E65-460C-84C3-40BB6CF6694C}"/>
+        <xdr:cNvPr id="61" name="図 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E9C96A5-00DF-4361-80C7-409EA7460BFA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4172,8 +4281,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="670560" y="63501534"/>
-          <a:ext cx="5216571" cy="3052735"/>
+          <a:off x="784860" y="67151212"/>
+          <a:ext cx="2155969" cy="3192091"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4198,23 +4307,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>502920</xdr:colOff>
-      <xdr:row>290</xdr:row>
-      <xdr:rowOff>49794</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>541020</xdr:colOff>
-      <xdr:row>290</xdr:row>
-      <xdr:rowOff>194574</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>309</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>525780</xdr:colOff>
+      <xdr:row>310</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="73" name="正方形/長方形 72">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{633F05C4-A720-46F4-B443-4D6EC65E6902}"/>
+        <xdr:cNvPr id="62" name="正方形/長方形 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E9553D4-CE20-4350-BBF0-7C4ADFF47E52}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4222,8 +4331,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5196840" y="66343794"/>
-          <a:ext cx="708660" cy="144780"/>
+          <a:off x="762000" y="67132200"/>
+          <a:ext cx="434340" cy="160020"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4262,25 +4371,91 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>322</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>323</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="正方形/長方形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B4B664D-3E9D-42FA-B5EF-E82F5C308C91}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="899160" y="70050660"/>
+          <a:ext cx="312420" cy="129540"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>293</xdr:row>
-      <xdr:rowOff>171412</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>258589</xdr:colOff>
-      <xdr:row>307</xdr:row>
-      <xdr:rowOff>163103</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>40985</xdr:colOff>
+      <xdr:row>204</xdr:row>
+      <xdr:rowOff>205739</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>655320</xdr:colOff>
+      <xdr:row>220</xdr:row>
+      <xdr:rowOff>169560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="75" name="図 74">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0D13BFF-6853-4EBC-A59B-78385E7F6AFD}"/>
+        <xdr:cNvPr id="66" name="図 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FE32FA2-75F9-4BE4-85F2-E304E3177764}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4296,8 +4471,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="784860" y="67151212"/>
-          <a:ext cx="2155969" cy="3192091"/>
+          <a:off x="2052665" y="46840139"/>
+          <a:ext cx="3296575" cy="3621421"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4322,23 +4497,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>293</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>525780</xdr:colOff>
-      <xdr:row>294</xdr:row>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>79084</xdr:colOff>
+      <xdr:row>218</xdr:row>
+      <xdr:rowOff>198119</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>464819</xdr:colOff>
+      <xdr:row>219</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="76" name="正方形/長方形 75">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3821EC45-1E1E-4D39-83D0-4C81C42DC10A}"/>
+        <xdr:cNvPr id="67" name="正方形/長方形 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0AE4861-68C4-446E-9551-6CC5F88AABE6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4346,8 +4521,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="762000" y="67132200"/>
-          <a:ext cx="434340" cy="160020"/>
+          <a:off x="2090764" y="50032919"/>
+          <a:ext cx="1726855" cy="114301"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4388,23 +4563,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>306</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>541020</xdr:colOff>
-      <xdr:row>307</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>467704</xdr:colOff>
+      <xdr:row>216</xdr:row>
+      <xdr:rowOff>198118</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>632459</xdr:colOff>
+      <xdr:row>217</xdr:row>
+      <xdr:rowOff>91439</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="77" name="正方形/長方形 76">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62E1F297-D661-4761-ABCF-3DCB73A7D96D}"/>
+        <xdr:cNvPr id="68" name="正方形/長方形 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C0ECF2B-B062-48A1-ADCC-018045A1E71E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4412,8 +4587,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="899160" y="70050660"/>
-          <a:ext cx="312420" cy="129540"/>
+          <a:off x="3820504" y="49575718"/>
+          <a:ext cx="1505875" cy="121921"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4452,10 +4627,4198 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>654944</xdr:colOff>
+      <xdr:row>222</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>234</xdr:row>
+      <xdr:rowOff>87013</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="69" name="図 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BF3DEDA-63E7-4508-8EB1-D06353B480FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1325504" y="50787300"/>
+          <a:ext cx="4793356" cy="2792113"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>194044</xdr:colOff>
+      <xdr:row>227</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>228</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="正方形/長方形 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A34267C-648E-4BE5-945C-73A7B96A1B41}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1535164" y="52052220"/>
+          <a:ext cx="4172216" cy="167640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>669341</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>358138</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>220980</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77E0115E-DDDB-494D-80A2-B565D9840543}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="669341" y="1051560"/>
+          <a:ext cx="4382717" cy="1912620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>629051</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>619599</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>65871</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="図 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A658D2A-770B-402E-867C-06E640A8A6B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="629051" y="6202680"/>
+          <a:ext cx="5355028" cy="3007191"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="吹き出し: 四角形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45E464B6-D95A-4CCD-BC57-B42D24B964B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5966460" y="6972300"/>
+          <a:ext cx="3627120" cy="967740"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -66001"/>
+            <a:gd name="adj2" fmla="val 30987"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Full</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> Edition</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>のダウンロードをお願い致します。</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Full</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t> Edition</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>をダウンロードをしない場合は、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>Java</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>インストールや環境変数の設定を必要に応じてお願い致します。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>90221</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>449578</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="図 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{379442ED-A04B-477F-B2F2-1CD974BA73F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="760781" y="3688080"/>
+          <a:ext cx="4382717" cy="1912620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>617220</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="正方形/長方形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17968B85-2AFA-4309-8C71-870269A3D982}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2628900" y="4221480"/>
+          <a:ext cx="845820" cy="335280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>583692</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="矢印: 下 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76D295E9-FC92-4122-B9F2-99BA608EB201}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2781300" y="5745480"/>
+          <a:ext cx="484632" cy="335280"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3835</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>466775</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>119121</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="図 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78472453-2DB2-4BB7-B4DE-8784FF79DE16}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="674395" y="11711940"/>
+          <a:ext cx="5827420" cy="2808981"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="吹き出し: 四角形 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C526B96-C825-40D1-AB91-FB1C69141D95}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="411480" y="6309360"/>
+          <a:ext cx="3764280" cy="1287780"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -12743"/>
+            <a:gd name="adj2" fmla="val 75799"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ダウンロード対象はお使いの</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>PC</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>にあったものを選んでください。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>※Full Edition</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>の</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>zip</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ファイルの容量は</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>1GB</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>を超えるため、ダウンロードに時間がかかります。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>531520</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>180081</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="図 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9328446-A542-4156-8000-F18FF1F82F3C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="739140" y="15201900"/>
+          <a:ext cx="5827420" cy="2808981"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>350519</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="正方形/長方形 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F32C139-C274-4F6E-B7FC-6E3947AE03D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5714999" y="17305020"/>
+          <a:ext cx="198121" cy="175260"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>289559</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="正方形/長方形 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FF08B57-29C1-4F2A-BB0B-B2ED7F705F40}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4312919" y="16992600"/>
+          <a:ext cx="1623061" cy="769620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="吹き出し: 四角形 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{674F8CE9-1DED-4A4C-9192-BBFBEE6D2CF5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6568440" y="16306800"/>
+          <a:ext cx="3627120" cy="967740"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -66001"/>
+            <a:gd name="adj2" fmla="val 30987"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Clone or download</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>」ボタンをクリックして、表示された緑枠で囲まれたポップアップ内の、赤枠で囲まれたアイコンをクリックすることで、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>URL</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>をコピーする。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>444565</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>83821</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>33905</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>160021</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="図 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD8A2D42-27C8-4128-AC4E-B72417BE2142}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1115125" y="19286221"/>
+          <a:ext cx="4283260" cy="1676400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>61595</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>136346</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>88789</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="図 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{131D97AA-4A76-43CF-81DE-3D18359EE0B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2057400" y="21778595"/>
+          <a:ext cx="2772866" cy="2541794"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>638822</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>159215</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>124980</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="図 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB947572-A265-4660-BD4D-591EB2D14AC1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1979942" y="25336500"/>
+          <a:ext cx="2873193" cy="2677680"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>15239</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="正方形/長方形 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6640B031-1CCA-47CC-9FF4-4CDCEFA5F01B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2697479" y="20269200"/>
+          <a:ext cx="1120141" cy="137160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>103632</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="矢印: 下 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD79DEDD-402D-4E6A-8026-E99421BD546E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2971800" y="21282660"/>
+          <a:ext cx="484632" cy="335280"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>60959</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="正方形/長方形 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10A7F188-B754-43BE-B64C-B9617E0A4E29}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2072639" y="22357080"/>
+          <a:ext cx="678181" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>263652</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="矢印: 下 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{644E72A7-5250-4C65-850A-96211F77BB7F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3131820" y="24742140"/>
+          <a:ext cx="484632" cy="335280"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="吹き出し: 四角形 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{144AB81B-9DD0-4280-918B-BBF6EE7D28A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3139440" y="22197060"/>
+          <a:ext cx="2110740" cy="350520"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -66001"/>
+            <a:gd name="adj2" fmla="val 30987"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>「クローン</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>URL</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>」をクリック。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="吹き出し: 四角形 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4569AE0-32D7-4446-ACDC-9938F1E8E891}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4785360" y="25869900"/>
+          <a:ext cx="2651760" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -66001"/>
+            <a:gd name="adj2" fmla="val 30987"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>(2)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>を実施している場合は、各項目が入力された状態で表示されます。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="吹き出し: 四角形 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95928B96-85A0-4085-82DB-9ADE4B4403D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4061460" y="27660600"/>
+          <a:ext cx="1752600" cy="312420"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -66001"/>
+            <a:gd name="adj2" fmla="val 30987"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>「次へ」をクリック。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>632460</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>116298</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>353513</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>204987</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="図 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76597057-B782-424F-9984-12F649C08291}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1973580" y="28691298"/>
+          <a:ext cx="3073853" cy="2831889"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>632460</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>446532</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="矢印: 下 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23CA28C9-7E8F-4434-A130-E9C05865F67D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3314700" y="31760160"/>
+          <a:ext cx="484632" cy="335280"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>309372</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="矢印: 下 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3E8E228-CB36-410A-9052-444715EECD9B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3177540" y="28194000"/>
+          <a:ext cx="484632" cy="335280"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="吹き出し: 四角形 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F12E2305-3D11-4F80-A010-4038F4F12D77}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4076700" y="31043880"/>
+          <a:ext cx="1752600" cy="312420"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -66001"/>
+            <a:gd name="adj2" fmla="val 30987"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>「次へ」をクリック。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>133057</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>113495</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>128797</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="図 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C934592-7487-462C-BE12-E73E9B6961A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2263140" y="32365657"/>
+          <a:ext cx="3214835" cy="2967540"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="吹き出し: 四角形 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A1AF1E6-01ED-41ED-8511-FAA87DE7E4D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5143500" y="34891980"/>
+          <a:ext cx="1752600" cy="312420"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -66001"/>
+            <a:gd name="adj2" fmla="val 30987"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>「完了」をクリック。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>11572</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>408776</xdr:colOff>
+      <xdr:row>183</xdr:row>
+      <xdr:rowOff>52597</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="図 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B73D5844-3387-4115-92AB-A4928696B887}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="342900" y="39330772"/>
+          <a:ext cx="2748116" cy="2555625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>395938</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>377953</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>81073</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="図 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F2C8E6B-FB67-4595-BE73-61F1FB71289E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4419298" y="39227760"/>
+          <a:ext cx="3334815" cy="2458513"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="吹き出し: 四角形 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF8975D0-6AAE-4A89-A989-E6AD62805F07}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7459980" y="41315640"/>
+          <a:ext cx="1752600" cy="312420"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -66001"/>
+            <a:gd name="adj2" fmla="val 30987"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>「完了」をクリック。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>164592</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="矢印: 右 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{537A0C3D-F966-4918-A2E4-B3B8B2E5E0D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3467100" y="40370760"/>
+          <a:ext cx="419100" cy="484632"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>183</xdr:row>
+      <xdr:rowOff>133492</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>186</xdr:row>
+      <xdr:rowOff>205740</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="吹き出し: 四角形 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D918D61C-8D68-4AA0-873E-D4BD0D5AF75A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1440180" y="41967292"/>
+          <a:ext cx="1950720" cy="758048"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -65833"/>
+            <a:gd name="adj2" fmla="val -69341"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>右クリックして、メニューを表示する。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>163972</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="吹き出し: 四角形 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BC2B6BD-23F4-4ECD-9325-53F9BA030FD1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2377440" y="39025972"/>
+          <a:ext cx="1950720" cy="758048"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -79114"/>
+            <a:gd name="adj2" fmla="val 162863"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>「プロジェクト</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>のインポート</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>」をクリック。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="正方形/長方形 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1A07BFB-001D-451A-814E-AB5ACE6B5593}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1150620" y="40706040"/>
+          <a:ext cx="1066800" cy="121920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>640080</xdr:colOff>
+      <xdr:row>188</xdr:row>
+      <xdr:rowOff>149560</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>28000</xdr:colOff>
+      <xdr:row>199</xdr:row>
+      <xdr:rowOff>163404</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="図 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07A24D36-6ACD-48FD-A862-0C62042AADC8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1310640" y="43126360"/>
+          <a:ext cx="3411280" cy="2528444"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>9012</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>323081</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>75848</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="図 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2693481-CF49-48DB-890B-E3A19BEA66A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1722120" y="36356412"/>
+          <a:ext cx="4636001" cy="2124236"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>198120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>568452</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="矢印: 下 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA93405F-8DA7-4006-B330-917BEF9210DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3436620" y="35631120"/>
+          <a:ext cx="484632" cy="335280"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="吹き出し: 四角形 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06594A5B-30DA-451F-9D6A-86E12CE7221A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4907280" y="36301680"/>
+          <a:ext cx="3063240" cy="312420"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -66001"/>
+            <a:gd name="adj2" fmla="val 30987"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Poker</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>」リポジトリーができている。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="吹き出し: 四角形 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D285C70-34A7-4402-9C49-C34F9D6005BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4160520" y="4000500"/>
+          <a:ext cx="2468880" cy="281940"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -73354"/>
+            <a:gd name="adj2" fmla="val 62483"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Eclipse</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>4.8.0 Photon</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>」をクリック</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="正方形/長方形 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4DB2DAE-52B0-45CA-B906-7428B4CCBED4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2468880" y="7802880"/>
+          <a:ext cx="662940" cy="205740"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="正方形/長方形 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA0F3BA2-5BD8-48A4-846D-40EF1705AF39}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2491740" y="8252460"/>
+          <a:ext cx="701040" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="正方形/長方形 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D385B8BB-98B7-40F4-9D26-AC54991ACB4E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2499360" y="8732520"/>
+          <a:ext cx="716280" cy="213360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>312</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3094330" cy="2865120"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="53" name="図 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA3BC00A-D1C1-4A18-BB9F-5E3681219A64}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="487680" y="46809660"/>
+          <a:ext cx="3094330" cy="2865120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>632460</xdr:colOff>
+      <xdr:row>312</xdr:row>
+      <xdr:rowOff>48972</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2504562" cy="4131655"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="54" name="図 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64F0ABBB-B197-4CD6-948C-37A294EC8931}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4655820" y="46683372"/>
+          <a:ext cx="2504562" cy="4131655"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>320</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>320</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="正方形/長方形 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09774342-5FE9-4827-916F-EA17D4FB4DF3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="845820" y="48531780"/>
+          <a:ext cx="1066800" cy="121920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>624840</xdr:colOff>
+      <xdr:row>328</xdr:row>
+      <xdr:rowOff>205740</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>329</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="正方形/長方形 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1369301E-6B57-4A0D-8972-D3CBED2A1733}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4648200" y="50497740"/>
+          <a:ext cx="2278380" cy="121920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>321</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>325</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="吹き出し: 四角形 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4902F94C-1F76-48B2-8091-730A0DBD4DE1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2133600" y="48844200"/>
+          <a:ext cx="1950720" cy="937260"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -65833"/>
+            <a:gd name="adj2" fmla="val -69341"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>右クリックして、メニューを表示する。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>640080</xdr:colOff>
+      <xdr:row>318</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>320</xdr:row>
+      <xdr:rowOff>149352</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="矢印: 右 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{359BD0C3-B9B4-4218-B5DC-2AA8FEEDDEDB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3992880" y="48127920"/>
+          <a:ext cx="419100" cy="484632"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>335</xdr:row>
+      <xdr:rowOff>23458</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5162269" cy="2402495"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="59" name="図 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8A221C1-4DC8-4297-857F-87B6C5460A55}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="891540" y="51915658"/>
+          <a:ext cx="5162269" cy="2402495"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>570726</xdr:colOff>
+      <xdr:row>204</xdr:row>
+      <xdr:rowOff>220980</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>188646</xdr:colOff>
+      <xdr:row>215</xdr:row>
+      <xdr:rowOff>107798</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="60" name="図 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C70CCEAE-3527-4CBF-890F-2330CE18FA12}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="570726" y="46855380"/>
+          <a:ext cx="5652960" cy="2401418"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>220</xdr:row>
+      <xdr:rowOff>134441</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>652453</xdr:colOff>
+      <xdr:row>224</xdr:row>
+      <xdr:rowOff>28371</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="61" name="図 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8694B8E7-B0A9-4379-A17B-26F54F3DE644}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="861060" y="50426441"/>
+          <a:ext cx="3814753" cy="808330"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>228</xdr:row>
+      <xdr:rowOff>205740</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>241</xdr:row>
+      <xdr:rowOff>23784</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="62" name="図 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2C16D26-9CEC-45C9-BE13-D706B5C500F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="236220" y="52326540"/>
+          <a:ext cx="4831080" cy="2789844"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>650488</xdr:colOff>
+      <xdr:row>245</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>545855</xdr:colOff>
+      <xdr:row>259</xdr:row>
+      <xdr:rowOff>71769</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="64" name="図 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8666ADBB-74FE-4B1F-80AC-C72B4E05182A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="650488" y="59466480"/>
+          <a:ext cx="4589287" cy="3241689"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>237</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>238</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="正方形/長方形 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C46C794-FBA7-40FA-9930-00E63895A13A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1089660" y="54368700"/>
+          <a:ext cx="708660" cy="144780"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>593754</xdr:colOff>
+      <xdr:row>262</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>503590</xdr:colOff>
+      <xdr:row>274</xdr:row>
+      <xdr:rowOff>24063</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="70" name="図 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50548FFB-1859-4B33-A9B2-F4CB5F9DF135}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="593754" y="59817000"/>
+          <a:ext cx="4603756" cy="2614863"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>464214</xdr:colOff>
+      <xdr:row>271</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>502314</xdr:colOff>
+      <xdr:row>271</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="71" name="正方形/長方形 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B779496-16AA-4AB1-9C02-45BB07E465E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4487574" y="61744860"/>
+          <a:ext cx="708660" cy="144780"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>277</xdr:row>
+      <xdr:rowOff>179334</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>522651</xdr:colOff>
+      <xdr:row>291</xdr:row>
+      <xdr:rowOff>31669</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="72" name="図 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B219DC96-6E65-460C-84C3-40BB6CF6694C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="670560" y="63501534"/>
+          <a:ext cx="5216571" cy="3052735"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>290</xdr:row>
+      <xdr:rowOff>49794</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>290</xdr:row>
+      <xdr:rowOff>194574</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="73" name="正方形/長方形 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{633F05C4-A720-46F4-B443-4D6EC65E6902}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5196840" y="66343794"/>
+          <a:ext cx="708660" cy="144780"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>293</xdr:row>
+      <xdr:rowOff>171412</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>258589</xdr:colOff>
+      <xdr:row>307</xdr:row>
+      <xdr:rowOff>163103</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="75" name="図 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0D13BFF-6853-4EBC-A59B-78385E7F6AFD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="784860" y="67151212"/>
+          <a:ext cx="2155969" cy="3192091"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>293</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>525780</xdr:colOff>
+      <xdr:row>294</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="76" name="正方形/長方形 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3821EC45-1E1E-4D39-83D0-4C81C42DC10A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="67132200"/>
+          <a:ext cx="434340" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>306</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>307</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="77" name="正方形/長方形 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62E1F297-D661-4761-ABCF-3DCB73A7D96D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="899160" y="70050660"/>
+          <a:ext cx="312420" cy="129540"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -7896,8 +12259,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D095BB7-15DF-49C4-AEA7-1D091CCB03BC}">
-  <dimension ref="A1:L348"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{663ABCF8-827A-4ED9-ADEF-DEEA93137ADF}">
+  <dimension ref="A1:L364"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8618,7 +12981,7 @@
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A204" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="L204" s="6"/>
     </row>
@@ -8662,24 +13025,21 @@
       <c r="L217" s="6"/>
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A218" t="s">
-        <v>18</v>
-      </c>
       <c r="L218" s="6"/>
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.45">
       <c r="L219" s="6"/>
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A220" t="s">
-        <v>19</v>
-      </c>
       <c r="L220" s="6"/>
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.45">
       <c r="L221" s="6"/>
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A222" t="s">
+        <v>27</v>
+      </c>
       <c r="L222" s="6"/>
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.45">
@@ -8692,357 +13052,360 @@
       <c r="L225" s="6"/>
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A226" t="s">
+      <c r="L226" s="6"/>
+    </row>
+    <row r="227" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L227" s="6"/>
+    </row>
+    <row r="228" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L228" s="6"/>
+    </row>
+    <row r="229" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L229" s="6"/>
+    </row>
+    <row r="230" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L230" s="6"/>
+    </row>
+    <row r="231" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L231" s="6"/>
+    </row>
+    <row r="232" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L232" s="6"/>
+    </row>
+    <row r="233" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L233" s="6"/>
+    </row>
+    <row r="234" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L234" s="6"/>
+    </row>
+    <row r="235" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L235" s="6"/>
+    </row>
+    <row r="236" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A236" t="s">
+        <v>28</v>
+      </c>
+      <c r="L236" s="6"/>
+    </row>
+    <row r="237" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L237" s="6"/>
+    </row>
+    <row r="238" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L238" s="6"/>
+    </row>
+    <row r="239" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L239" s="6"/>
+    </row>
+    <row r="240" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L240" s="6"/>
+    </row>
+    <row r="241" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L241" s="6"/>
+    </row>
+    <row r="242" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A242" t="s">
         <v>20</v>
       </c>
-      <c r="L226" s="6"/>
-    </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L227" s="6"/>
-    </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A228" t="s">
+      <c r="L242" s="6"/>
+    </row>
+    <row r="243" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L243" s="6"/>
+    </row>
+    <row r="244" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A244" t="s">
         <v>21</v>
       </c>
-      <c r="L228" s="6"/>
-    </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L229" s="6"/>
-    </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L230" s="6"/>
-    </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L231" s="6"/>
-    </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L232" s="6"/>
-    </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L233" s="6"/>
-    </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L234" s="6"/>
-    </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L235" s="6"/>
-    </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L236" s="6"/>
-    </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L237" s="6"/>
-    </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L238" s="6"/>
-    </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L239" s="6"/>
-    </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L240" s="6"/>
-    </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L241" s="6"/>
-    </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L242" s="6"/>
-    </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L243" s="6"/>
-    </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A244" t="s">
+      <c r="L244" s="6"/>
+    </row>
+    <row r="245" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L245" s="6"/>
+    </row>
+    <row r="246" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L246" s="6"/>
+    </row>
+    <row r="247" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L247" s="6"/>
+    </row>
+    <row r="248" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L248" s="6"/>
+    </row>
+    <row r="249" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L249" s="6"/>
+    </row>
+    <row r="250" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L250" s="6"/>
+    </row>
+    <row r="251" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L251" s="6"/>
+    </row>
+    <row r="252" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L252" s="6"/>
+    </row>
+    <row r="253" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L253" s="6"/>
+    </row>
+    <row r="254" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L254" s="6"/>
+    </row>
+    <row r="255" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L255" s="6"/>
+    </row>
+    <row r="256" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L256" s="6"/>
+    </row>
+    <row r="257" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L257" s="6"/>
+    </row>
+    <row r="258" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L258" s="6"/>
+    </row>
+    <row r="259" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L259" s="6"/>
+    </row>
+    <row r="260" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A260" t="s">
         <v>22</v>
       </c>
-      <c r="L244" s="6"/>
-    </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L245" s="6"/>
-    </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L246" s="6"/>
-    </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L247" s="6"/>
-    </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L248" s="6"/>
-    </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L249" s="6"/>
-    </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L250" s="6"/>
-    </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L251" s="6"/>
-    </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L252" s="6"/>
-    </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L253" s="6"/>
-    </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L254" s="6"/>
-    </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L255" s="6"/>
-    </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L256" s="6"/>
-    </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L257" s="6"/>
-    </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L258" s="6"/>
-    </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L259" s="6"/>
-    </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.45">
       <c r="L260" s="6"/>
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.45">
       <c r="L261" s="6"/>
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A262" t="s">
+      <c r="L262" s="6"/>
+    </row>
+    <row r="263" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L263" s="6"/>
+    </row>
+    <row r="264" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L264" s="6"/>
+    </row>
+    <row r="265" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L265" s="6"/>
+    </row>
+    <row r="266" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L266" s="6"/>
+    </row>
+    <row r="267" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L267" s="6"/>
+    </row>
+    <row r="268" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L268" s="6"/>
+    </row>
+    <row r="269" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L269" s="6"/>
+    </row>
+    <row r="270" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L270" s="6"/>
+    </row>
+    <row r="271" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L271" s="6"/>
+    </row>
+    <row r="272" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L272" s="6"/>
+    </row>
+    <row r="273" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L273" s="6"/>
+    </row>
+    <row r="274" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L274" s="6"/>
+    </row>
+    <row r="275" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L275" s="6"/>
+    </row>
+    <row r="276" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L276" s="6"/>
+    </row>
+    <row r="277" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L277" s="6"/>
+    </row>
+    <row r="278" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A278" t="s">
         <v>23</v>
       </c>
-      <c r="L262" s="6"/>
-    </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L263" s="6"/>
-    </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L264" s="6"/>
-    </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L265" s="6"/>
-    </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L266" s="6"/>
-    </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L267" s="6"/>
-    </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L268" s="6"/>
-    </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L269" s="6"/>
-    </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L270" s="6"/>
-    </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L271" s="6"/>
-    </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L272" s="6"/>
-    </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L273" s="6"/>
-    </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L274" s="6"/>
-    </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L275" s="6"/>
-    </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L276" s="6"/>
-    </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A277" t="s">
+      <c r="L278" s="6"/>
+    </row>
+    <row r="279" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L279" s="6"/>
+    </row>
+    <row r="280" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L280" s="6"/>
+    </row>
+    <row r="281" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L281" s="6"/>
+    </row>
+    <row r="282" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L282" s="6"/>
+    </row>
+    <row r="283" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L283" s="6"/>
+    </row>
+    <row r="284" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L284" s="6"/>
+    </row>
+    <row r="285" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L285" s="6"/>
+    </row>
+    <row r="286" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L286" s="6"/>
+    </row>
+    <row r="287" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L287" s="6"/>
+    </row>
+    <row r="288" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L288" s="6"/>
+    </row>
+    <row r="289" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L289" s="6"/>
+    </row>
+    <row r="290" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L290" s="6"/>
+    </row>
+    <row r="291" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L291" s="6"/>
+    </row>
+    <row r="292" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L292" s="6"/>
+    </row>
+    <row r="293" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A293" t="s">
         <v>24</v>
       </c>
-      <c r="L277" s="6"/>
-    </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L278" s="6"/>
-    </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L279" s="6"/>
-    </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L280" s="6"/>
-    </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L281" s="6"/>
-    </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L282" s="6"/>
-    </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L283" s="6"/>
-    </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L284" s="6"/>
-    </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L285" s="6"/>
-    </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L286" s="6"/>
-    </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L287" s="6"/>
-    </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L288" s="6"/>
-    </row>
-    <row r="289" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L289" s="6"/>
-    </row>
-    <row r="290" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L290" s="6"/>
-    </row>
-    <row r="291" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L291" s="6"/>
-    </row>
-    <row r="292" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L292" s="6"/>
-    </row>
-    <row r="293" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A293" t="s">
+      <c r="L293" s="6"/>
+    </row>
+    <row r="294" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L294" s="6"/>
+    </row>
+    <row r="295" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L295" s="6"/>
+    </row>
+    <row r="296" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L296" s="6"/>
+    </row>
+    <row r="297" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L297" s="6"/>
+    </row>
+    <row r="298" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L298" s="6"/>
+    </row>
+    <row r="299" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L299" s="6"/>
+    </row>
+    <row r="300" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L300" s="6"/>
+    </row>
+    <row r="301" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L301" s="6"/>
+    </row>
+    <row r="302" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L302" s="6"/>
+    </row>
+    <row r="303" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L303" s="6"/>
+    </row>
+    <row r="304" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L304" s="6"/>
+    </row>
+    <row r="305" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L305" s="6"/>
+    </row>
+    <row r="306" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L306" s="6"/>
+    </row>
+    <row r="307" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L307" s="6"/>
+    </row>
+    <row r="308" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L308" s="6"/>
+    </row>
+    <row r="309" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A309" t="s">
         <v>25</v>
       </c>
-      <c r="L293" s="6"/>
-    </row>
-    <row r="294" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L294" s="6"/>
-    </row>
-    <row r="295" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L295" s="6"/>
-    </row>
-    <row r="296" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L296" s="6"/>
-    </row>
-    <row r="297" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L297" s="6"/>
-    </row>
-    <row r="298" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L298" s="6"/>
-    </row>
-    <row r="299" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L299" s="6"/>
-    </row>
-    <row r="300" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L300" s="6"/>
-    </row>
-    <row r="301" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L301" s="6"/>
-    </row>
-    <row r="302" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L302" s="6"/>
-    </row>
-    <row r="303" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L303" s="6"/>
-    </row>
-    <row r="304" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L304" s="6"/>
-    </row>
-    <row r="305" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L305" s="6"/>
-    </row>
-    <row r="306" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L306" s="6"/>
-    </row>
-    <row r="307" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L307" s="6"/>
-    </row>
-    <row r="308" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L308" s="6"/>
-    </row>
-    <row r="309" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A309" s="4"/>
-      <c r="B309" s="4"/>
-      <c r="C309" s="4"/>
-      <c r="D309" s="4"/>
-      <c r="E309" s="4"/>
-      <c r="F309" s="4"/>
-      <c r="G309" s="4"/>
-      <c r="H309" s="4"/>
-      <c r="I309" s="4"/>
-      <c r="J309" s="4"/>
-      <c r="K309" s="4"/>
-      <c r="L309" s="5"/>
+      <c r="L309" s="6"/>
     </row>
     <row r="310" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A310" s="4" t="s">
+      <c r="L310" s="6"/>
+    </row>
+    <row r="311" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L311" s="6"/>
+    </row>
+    <row r="312" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L312" s="6"/>
+    </row>
+    <row r="313" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L313" s="6"/>
+    </row>
+    <row r="314" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L314" s="6"/>
+    </row>
+    <row r="315" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L315" s="6"/>
+    </row>
+    <row r="316" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L316" s="6"/>
+    </row>
+    <row r="317" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L317" s="6"/>
+    </row>
+    <row r="318" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L318" s="6"/>
+    </row>
+    <row r="319" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L319" s="6"/>
+    </row>
+    <row r="320" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L320" s="6"/>
+    </row>
+    <row r="321" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L321" s="6"/>
+    </row>
+    <row r="322" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L322" s="6"/>
+    </row>
+    <row r="323" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L323" s="6"/>
+    </row>
+    <row r="324" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L324" s="6"/>
+    </row>
+    <row r="325" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A325" s="4"/>
+      <c r="B325" s="4"/>
+      <c r="C325" s="4"/>
+      <c r="D325" s="4"/>
+      <c r="E325" s="4"/>
+      <c r="F325" s="4"/>
+      <c r="G325" s="4"/>
+      <c r="H325" s="4"/>
+      <c r="I325" s="4"/>
+      <c r="J325" s="4"/>
+      <c r="K325" s="4"/>
+      <c r="L325" s="5"/>
+    </row>
+    <row r="326" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A326" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B310" s="4"/>
-      <c r="C310" s="4"/>
-      <c r="D310" s="4"/>
-      <c r="E310" s="4"/>
-      <c r="F310" s="4"/>
-      <c r="G310" s="4"/>
-      <c r="H310" s="4"/>
-      <c r="I310" s="4"/>
-      <c r="J310" s="4"/>
-      <c r="K310" s="4"/>
-      <c r="L310" s="5"/>
-    </row>
-    <row r="311" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L311" s="6"/>
-    </row>
-    <row r="312" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A312" t="s">
+      <c r="B326" s="4"/>
+      <c r="C326" s="4"/>
+      <c r="D326" s="4"/>
+      <c r="E326" s="4"/>
+      <c r="F326" s="4"/>
+      <c r="G326" s="4"/>
+      <c r="H326" s="4"/>
+      <c r="I326" s="4"/>
+      <c r="J326" s="4"/>
+      <c r="K326" s="4"/>
+      <c r="L326" s="5"/>
+    </row>
+    <row r="327" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L327" s="6"/>
+    </row>
+    <row r="328" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A328" t="s">
         <v>4</v>
       </c>
-      <c r="L312" s="6"/>
-    </row>
-    <row r="313" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L313" s="6"/>
-    </row>
-    <row r="314" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L314" s="6"/>
-    </row>
-    <row r="315" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L315" s="6"/>
-    </row>
-    <row r="316" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L316" s="6"/>
-    </row>
-    <row r="317" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L317" s="6"/>
-    </row>
-    <row r="318" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L318" s="6"/>
-    </row>
-    <row r="319" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L319" s="6"/>
-    </row>
-    <row r="320" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L320" s="6"/>
-    </row>
-    <row r="321" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L321" s="6"/>
-    </row>
-    <row r="322" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L322" s="6"/>
-    </row>
-    <row r="323" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L323" s="6"/>
-    </row>
-    <row r="324" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L324" s="6"/>
-    </row>
-    <row r="325" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L325" s="6"/>
-    </row>
-    <row r="326" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L326" s="6"/>
-    </row>
-    <row r="327" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L327" s="6"/>
-    </row>
-    <row r="328" spans="1:12" x14ac:dyDescent="0.45">
       <c r="L328" s="6"/>
     </row>
     <row r="329" spans="1:12" x14ac:dyDescent="0.45">
@@ -9061,69 +13424,117 @@
       <c r="L333" s="6"/>
     </row>
     <row r="334" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A334" t="s">
+      <c r="L334" s="6"/>
+    </row>
+    <row r="335" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L335" s="6"/>
+    </row>
+    <row r="336" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L336" s="6"/>
+    </row>
+    <row r="337" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L337" s="6"/>
+    </row>
+    <row r="338" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L338" s="6"/>
+    </row>
+    <row r="339" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L339" s="6"/>
+    </row>
+    <row r="340" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L340" s="6"/>
+    </row>
+    <row r="341" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L341" s="6"/>
+    </row>
+    <row r="342" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L342" s="6"/>
+    </row>
+    <row r="343" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L343" s="6"/>
+    </row>
+    <row r="344" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L344" s="6"/>
+    </row>
+    <row r="345" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L345" s="6"/>
+    </row>
+    <row r="346" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L346" s="6"/>
+    </row>
+    <row r="347" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L347" s="6"/>
+    </row>
+    <row r="348" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L348" s="6"/>
+    </row>
+    <row r="349" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L349" s="6"/>
+    </row>
+    <row r="350" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A350" t="s">
         <v>5</v>
       </c>
-      <c r="L334" s="6"/>
-    </row>
-    <row r="335" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L335" s="6"/>
-    </row>
-    <row r="336" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L336" s="6"/>
-    </row>
-    <row r="337" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L337" s="6"/>
-    </row>
-    <row r="338" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L338" s="6"/>
-    </row>
-    <row r="339" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L339" s="6"/>
-    </row>
-    <row r="340" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L340" s="6"/>
-    </row>
-    <row r="341" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L341" s="6"/>
-    </row>
-    <row r="342" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L342" s="6"/>
-    </row>
-    <row r="343" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L343" s="6"/>
-    </row>
-    <row r="344" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L344" s="6"/>
-    </row>
-    <row r="345" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L345" s="6"/>
-    </row>
-    <row r="346" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L346" s="6"/>
-    </row>
-    <row r="347" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L347" s="6"/>
-    </row>
-    <row r="348" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A348" s="4"/>
-      <c r="B348" s="4"/>
-      <c r="C348" s="4"/>
-      <c r="D348" s="4"/>
-      <c r="E348" s="4"/>
-      <c r="F348" s="4"/>
-      <c r="G348" s="4"/>
-      <c r="H348" s="4"/>
-      <c r="I348" s="4"/>
-      <c r="J348" s="4"/>
-      <c r="K348" s="4"/>
-      <c r="L348" s="5"/>
+      <c r="L350" s="6"/>
+    </row>
+    <row r="351" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L351" s="6"/>
+    </row>
+    <row r="352" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L352" s="6"/>
+    </row>
+    <row r="353" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L353" s="6"/>
+    </row>
+    <row r="354" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L354" s="6"/>
+    </row>
+    <row r="355" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L355" s="6"/>
+    </row>
+    <row r="356" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L356" s="6"/>
+    </row>
+    <row r="357" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L357" s="6"/>
+    </row>
+    <row r="358" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L358" s="6"/>
+    </row>
+    <row r="359" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L359" s="6"/>
+    </row>
+    <row r="360" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L360" s="6"/>
+    </row>
+    <row r="361" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L361" s="6"/>
+    </row>
+    <row r="362" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L362" s="6"/>
+    </row>
+    <row r="363" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L363" s="6"/>
+    </row>
+    <row r="364" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A364" s="4"/>
+      <c r="B364" s="4"/>
+      <c r="C364" s="4"/>
+      <c r="D364" s="4"/>
+      <c r="E364" s="4"/>
+      <c r="F364" s="4"/>
+      <c r="G364" s="4"/>
+      <c r="H364" s="4"/>
+      <c r="I364" s="4"/>
+      <c r="J364" s="4"/>
+      <c r="K364" s="4"/>
+      <c r="L364" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="A4" r:id="rId1" xr:uid="{758FFD21-4167-4AD9-8B24-B50CF11468C4}"/>
-    <hyperlink ref="A50" r:id="rId2" xr:uid="{D0A330CF-5AF6-4BC1-8829-80F942882542}"/>
+    <hyperlink ref="A4" r:id="rId1" xr:uid="{0EE58572-97E0-4DEF-9D15-C3B6670EA03B}"/>
+    <hyperlink ref="A50" r:id="rId2" xr:uid="{8FB49946-9740-4F4C-8679-5D740DA40D8F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -9145,6 +13556,1242 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D095BB7-15DF-49C4-AEA7-1D091CCB03BC}">
+  <dimension ref="A1:L348"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="5"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L3" s="6"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="L4" s="6"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L5" s="6"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L6" s="6"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L7" s="6"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L8" s="6"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L9" s="6"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L10" s="6"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L11" s="6"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L12" s="6"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L13" s="6"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L14" s="6"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="L15" s="6"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L16" s="6"/>
+    </row>
+    <row r="17" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L17" s="6"/>
+    </row>
+    <row r="18" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L18" s="6"/>
+    </row>
+    <row r="19" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L19" s="6"/>
+    </row>
+    <row r="20" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L20" s="6"/>
+    </row>
+    <row r="21" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L21" s="6"/>
+    </row>
+    <row r="22" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L22" s="6"/>
+    </row>
+    <row r="23" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L23" s="6"/>
+    </row>
+    <row r="24" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L24" s="6"/>
+    </row>
+    <row r="25" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L25" s="6"/>
+    </row>
+    <row r="26" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L26" s="6"/>
+    </row>
+    <row r="27" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L27" s="6"/>
+    </row>
+    <row r="28" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L28" s="6"/>
+    </row>
+    <row r="29" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L29" s="6"/>
+    </row>
+    <row r="30" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L30" s="6"/>
+    </row>
+    <row r="31" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L31" s="6"/>
+    </row>
+    <row r="32" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L32" s="6"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L33" s="6"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L34" s="6"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L35" s="6"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L36" s="6"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L37" s="6"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L38" s="6"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L39" s="6"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L40" s="6"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L41" s="6"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L42" s="6"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>13</v>
+      </c>
+      <c r="L43" s="6"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L44" s="6"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>7</v>
+      </c>
+      <c r="L45" s="6"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L46" s="6"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="5"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A48" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="5"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L49" s="6"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A50" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="L50" s="6"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L51" s="6"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L52" s="6"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L53" s="6"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L54" s="6"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L55" s="6"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L56" s="6"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L57" s="6"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L58" s="6"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L59" s="6"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L60" s="6"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L61" s="6"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L62" s="6"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L63" s="6"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L64" s="6"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A65" t="s">
+        <v>9</v>
+      </c>
+      <c r="L65" s="6"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L66" s="6"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L67" s="6"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L68" s="6"/>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L69" s="6"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L70" s="6"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L71" s="6"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L72" s="6"/>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L73" s="6"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L74" s="6"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L75" s="6"/>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L76" s="6"/>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L77" s="6"/>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L78" s="6"/>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L79" s="6"/>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L80" s="6"/>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L81" s="6"/>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A82" t="s">
+        <v>15</v>
+      </c>
+      <c r="L82" s="6"/>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L83" s="6"/>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L84" s="6"/>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L85" s="6"/>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L86" s="6"/>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L87" s="6"/>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L88" s="6"/>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L89" s="6"/>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L90" s="6"/>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L91" s="6"/>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L92" s="6"/>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L93" s="6"/>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L94" s="6"/>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L95" s="6"/>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L96" s="6"/>
+    </row>
+    <row r="97" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L97" s="6"/>
+    </row>
+    <row r="98" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L98" s="6"/>
+    </row>
+    <row r="99" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L99" s="6"/>
+    </row>
+    <row r="100" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L100" s="6"/>
+    </row>
+    <row r="101" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L101" s="6"/>
+    </row>
+    <row r="102" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L102" s="6"/>
+    </row>
+    <row r="103" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L103" s="6"/>
+    </row>
+    <row r="104" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L104" s="6"/>
+    </row>
+    <row r="105" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L105" s="6"/>
+    </row>
+    <row r="106" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L106" s="6"/>
+    </row>
+    <row r="107" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L107" s="6"/>
+    </row>
+    <row r="108" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L108" s="6"/>
+    </row>
+    <row r="109" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L109" s="6"/>
+    </row>
+    <row r="110" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L110" s="6"/>
+    </row>
+    <row r="111" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L111" s="6"/>
+    </row>
+    <row r="112" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L112" s="6"/>
+    </row>
+    <row r="113" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L113" s="6"/>
+    </row>
+    <row r="114" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L114" s="6"/>
+    </row>
+    <row r="115" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L115" s="6"/>
+    </row>
+    <row r="116" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L116" s="6"/>
+    </row>
+    <row r="117" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L117" s="6"/>
+    </row>
+    <row r="118" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L118" s="6"/>
+    </row>
+    <row r="119" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L119" s="6"/>
+    </row>
+    <row r="120" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L120" s="6"/>
+    </row>
+    <row r="121" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L121" s="6"/>
+    </row>
+    <row r="122" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L122" s="6"/>
+    </row>
+    <row r="123" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L123" s="6"/>
+    </row>
+    <row r="124" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L124" s="6"/>
+    </row>
+    <row r="125" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L125" s="6"/>
+    </row>
+    <row r="126" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L126" s="6"/>
+    </row>
+    <row r="127" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L127" s="6"/>
+    </row>
+    <row r="128" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L128" s="6"/>
+    </row>
+    <row r="129" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L129" s="6"/>
+    </row>
+    <row r="130" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L130" s="6"/>
+    </row>
+    <row r="131" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L131" s="6"/>
+    </row>
+    <row r="132" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L132" s="6"/>
+    </row>
+    <row r="133" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L133" s="6"/>
+    </row>
+    <row r="134" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L134" s="6"/>
+    </row>
+    <row r="135" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L135" s="6"/>
+    </row>
+    <row r="136" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L136" s="6"/>
+    </row>
+    <row r="137" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L137" s="6"/>
+    </row>
+    <row r="138" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L138" s="6"/>
+    </row>
+    <row r="139" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L139" s="6"/>
+    </row>
+    <row r="140" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L140" s="6"/>
+    </row>
+    <row r="141" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L141" s="6"/>
+    </row>
+    <row r="142" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L142" s="6"/>
+    </row>
+    <row r="143" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L143" s="6"/>
+    </row>
+    <row r="144" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L144" s="6"/>
+    </row>
+    <row r="145" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L145" s="6"/>
+    </row>
+    <row r="146" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L146" s="6"/>
+    </row>
+    <row r="147" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L147" s="6"/>
+    </row>
+    <row r="148" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L148" s="6"/>
+    </row>
+    <row r="149" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L149" s="6"/>
+    </row>
+    <row r="150" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L150" s="6"/>
+    </row>
+    <row r="151" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L151" s="6"/>
+    </row>
+    <row r="152" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L152" s="6"/>
+    </row>
+    <row r="153" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L153" s="6"/>
+    </row>
+    <row r="154" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L154" s="6"/>
+    </row>
+    <row r="155" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L155" s="6"/>
+    </row>
+    <row r="156" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L156" s="6"/>
+    </row>
+    <row r="157" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L157" s="6"/>
+    </row>
+    <row r="158" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L158" s="6"/>
+    </row>
+    <row r="159" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L159" s="6"/>
+    </row>
+    <row r="160" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L160" s="6"/>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L161" s="6"/>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L162" s="6"/>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L163" s="6"/>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L164" s="6"/>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L165" s="6"/>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L166" s="6"/>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L167" s="6"/>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L168" s="6"/>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L169" s="6"/>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A170" t="s">
+        <v>11</v>
+      </c>
+      <c r="L170" s="6"/>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A171" t="s">
+        <v>12</v>
+      </c>
+      <c r="L171" s="6"/>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L172" s="6"/>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L173" s="6"/>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L174" s="6"/>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L175" s="6"/>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L176" s="6"/>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L177" s="6"/>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L178" s="6"/>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L179" s="6"/>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L180" s="6"/>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L181" s="6"/>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L182" s="6"/>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L183" s="6"/>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L184" s="6"/>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L185" s="6"/>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L186" s="6"/>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L187" s="6"/>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A188" t="s">
+        <v>10</v>
+      </c>
+      <c r="L188" s="6"/>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L189" s="6"/>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L190" s="6"/>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L191" s="6"/>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L192" s="6"/>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L193" s="6"/>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L194" s="6"/>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L195" s="6"/>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L196" s="6"/>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L197" s="6"/>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L198" s="6"/>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L199" s="6"/>
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L200" s="6"/>
+    </row>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A201" s="4"/>
+      <c r="B201" s="4"/>
+      <c r="C201" s="4"/>
+      <c r="D201" s="4"/>
+      <c r="E201" s="4"/>
+      <c r="F201" s="4"/>
+      <c r="G201" s="4"/>
+      <c r="H201" s="4"/>
+      <c r="I201" s="4"/>
+      <c r="J201" s="4"/>
+      <c r="K201" s="4"/>
+      <c r="L201" s="5"/>
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A202" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B202" s="4"/>
+      <c r="C202" s="4"/>
+      <c r="D202" s="4"/>
+      <c r="E202" s="4"/>
+      <c r="F202" s="4"/>
+      <c r="G202" s="4"/>
+      <c r="H202" s="4"/>
+      <c r="I202" s="4"/>
+      <c r="J202" s="4"/>
+      <c r="K202" s="4"/>
+      <c r="L202" s="5"/>
+    </row>
+    <row r="203" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L203" s="6"/>
+    </row>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A204" t="s">
+        <v>17</v>
+      </c>
+      <c r="L204" s="6"/>
+    </row>
+    <row r="205" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L205" s="6"/>
+    </row>
+    <row r="206" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L206" s="6"/>
+    </row>
+    <row r="207" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L207" s="6"/>
+    </row>
+    <row r="208" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L208" s="6"/>
+    </row>
+    <row r="209" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L209" s="6"/>
+    </row>
+    <row r="210" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L210" s="6"/>
+    </row>
+    <row r="211" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L211" s="6"/>
+    </row>
+    <row r="212" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L212" s="6"/>
+    </row>
+    <row r="213" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L213" s="6"/>
+    </row>
+    <row r="214" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L214" s="6"/>
+    </row>
+    <row r="215" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L215" s="6"/>
+    </row>
+    <row r="216" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L216" s="6"/>
+    </row>
+    <row r="217" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L217" s="6"/>
+    </row>
+    <row r="218" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A218" t="s">
+        <v>18</v>
+      </c>
+      <c r="L218" s="6"/>
+    </row>
+    <row r="219" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L219" s="6"/>
+    </row>
+    <row r="220" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A220" t="s">
+        <v>19</v>
+      </c>
+      <c r="L220" s="6"/>
+    </row>
+    <row r="221" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L221" s="6"/>
+    </row>
+    <row r="222" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L222" s="6"/>
+    </row>
+    <row r="223" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L223" s="6"/>
+    </row>
+    <row r="224" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L224" s="6"/>
+    </row>
+    <row r="225" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L225" s="6"/>
+    </row>
+    <row r="226" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A226" t="s">
+        <v>20</v>
+      </c>
+      <c r="L226" s="6"/>
+    </row>
+    <row r="227" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L227" s="6"/>
+    </row>
+    <row r="228" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A228" t="s">
+        <v>21</v>
+      </c>
+      <c r="L228" s="6"/>
+    </row>
+    <row r="229" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L229" s="6"/>
+    </row>
+    <row r="230" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L230" s="6"/>
+    </row>
+    <row r="231" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L231" s="6"/>
+    </row>
+    <row r="232" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L232" s="6"/>
+    </row>
+    <row r="233" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L233" s="6"/>
+    </row>
+    <row r="234" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L234" s="6"/>
+    </row>
+    <row r="235" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L235" s="6"/>
+    </row>
+    <row r="236" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L236" s="6"/>
+    </row>
+    <row r="237" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L237" s="6"/>
+    </row>
+    <row r="238" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L238" s="6"/>
+    </row>
+    <row r="239" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L239" s="6"/>
+    </row>
+    <row r="240" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L240" s="6"/>
+    </row>
+    <row r="241" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L241" s="6"/>
+    </row>
+    <row r="242" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L242" s="6"/>
+    </row>
+    <row r="243" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L243" s="6"/>
+    </row>
+    <row r="244" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A244" t="s">
+        <v>22</v>
+      </c>
+      <c r="L244" s="6"/>
+    </row>
+    <row r="245" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L245" s="6"/>
+    </row>
+    <row r="246" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L246" s="6"/>
+    </row>
+    <row r="247" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L247" s="6"/>
+    </row>
+    <row r="248" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L248" s="6"/>
+    </row>
+    <row r="249" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L249" s="6"/>
+    </row>
+    <row r="250" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L250" s="6"/>
+    </row>
+    <row r="251" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L251" s="6"/>
+    </row>
+    <row r="252" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L252" s="6"/>
+    </row>
+    <row r="253" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L253" s="6"/>
+    </row>
+    <row r="254" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L254" s="6"/>
+    </row>
+    <row r="255" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L255" s="6"/>
+    </row>
+    <row r="256" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L256" s="6"/>
+    </row>
+    <row r="257" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L257" s="6"/>
+    </row>
+    <row r="258" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L258" s="6"/>
+    </row>
+    <row r="259" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L259" s="6"/>
+    </row>
+    <row r="260" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L260" s="6"/>
+    </row>
+    <row r="261" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L261" s="6"/>
+    </row>
+    <row r="262" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A262" t="s">
+        <v>23</v>
+      </c>
+      <c r="L262" s="6"/>
+    </row>
+    <row r="263" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L263" s="6"/>
+    </row>
+    <row r="264" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L264" s="6"/>
+    </row>
+    <row r="265" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L265" s="6"/>
+    </row>
+    <row r="266" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L266" s="6"/>
+    </row>
+    <row r="267" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L267" s="6"/>
+    </row>
+    <row r="268" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L268" s="6"/>
+    </row>
+    <row r="269" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L269" s="6"/>
+    </row>
+    <row r="270" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L270" s="6"/>
+    </row>
+    <row r="271" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L271" s="6"/>
+    </row>
+    <row r="272" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L272" s="6"/>
+    </row>
+    <row r="273" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L273" s="6"/>
+    </row>
+    <row r="274" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L274" s="6"/>
+    </row>
+    <row r="275" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L275" s="6"/>
+    </row>
+    <row r="276" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L276" s="6"/>
+    </row>
+    <row r="277" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A277" t="s">
+        <v>24</v>
+      </c>
+      <c r="L277" s="6"/>
+    </row>
+    <row r="278" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L278" s="6"/>
+    </row>
+    <row r="279" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L279" s="6"/>
+    </row>
+    <row r="280" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L280" s="6"/>
+    </row>
+    <row r="281" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L281" s="6"/>
+    </row>
+    <row r="282" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L282" s="6"/>
+    </row>
+    <row r="283" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L283" s="6"/>
+    </row>
+    <row r="284" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L284" s="6"/>
+    </row>
+    <row r="285" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L285" s="6"/>
+    </row>
+    <row r="286" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L286" s="6"/>
+    </row>
+    <row r="287" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L287" s="6"/>
+    </row>
+    <row r="288" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L288" s="6"/>
+    </row>
+    <row r="289" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L289" s="6"/>
+    </row>
+    <row r="290" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L290" s="6"/>
+    </row>
+    <row r="291" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L291" s="6"/>
+    </row>
+    <row r="292" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L292" s="6"/>
+    </row>
+    <row r="293" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A293" t="s">
+        <v>25</v>
+      </c>
+      <c r="L293" s="6"/>
+    </row>
+    <row r="294" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L294" s="6"/>
+    </row>
+    <row r="295" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L295" s="6"/>
+    </row>
+    <row r="296" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L296" s="6"/>
+    </row>
+    <row r="297" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L297" s="6"/>
+    </row>
+    <row r="298" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L298" s="6"/>
+    </row>
+    <row r="299" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L299" s="6"/>
+    </row>
+    <row r="300" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L300" s="6"/>
+    </row>
+    <row r="301" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L301" s="6"/>
+    </row>
+    <row r="302" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L302" s="6"/>
+    </row>
+    <row r="303" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L303" s="6"/>
+    </row>
+    <row r="304" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L304" s="6"/>
+    </row>
+    <row r="305" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L305" s="6"/>
+    </row>
+    <row r="306" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L306" s="6"/>
+    </row>
+    <row r="307" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L307" s="6"/>
+    </row>
+    <row r="308" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L308" s="6"/>
+    </row>
+    <row r="309" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A309" s="4"/>
+      <c r="B309" s="4"/>
+      <c r="C309" s="4"/>
+      <c r="D309" s="4"/>
+      <c r="E309" s="4"/>
+      <c r="F309" s="4"/>
+      <c r="G309" s="4"/>
+      <c r="H309" s="4"/>
+      <c r="I309" s="4"/>
+      <c r="J309" s="4"/>
+      <c r="K309" s="4"/>
+      <c r="L309" s="5"/>
+    </row>
+    <row r="310" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A310" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B310" s="4"/>
+      <c r="C310" s="4"/>
+      <c r="D310" s="4"/>
+      <c r="E310" s="4"/>
+      <c r="F310" s="4"/>
+      <c r="G310" s="4"/>
+      <c r="H310" s="4"/>
+      <c r="I310" s="4"/>
+      <c r="J310" s="4"/>
+      <c r="K310" s="4"/>
+      <c r="L310" s="5"/>
+    </row>
+    <row r="311" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L311" s="6"/>
+    </row>
+    <row r="312" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A312" t="s">
+        <v>4</v>
+      </c>
+      <c r="L312" s="6"/>
+    </row>
+    <row r="313" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L313" s="6"/>
+    </row>
+    <row r="314" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L314" s="6"/>
+    </row>
+    <row r="315" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L315" s="6"/>
+    </row>
+    <row r="316" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L316" s="6"/>
+    </row>
+    <row r="317" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L317" s="6"/>
+    </row>
+    <row r="318" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L318" s="6"/>
+    </row>
+    <row r="319" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L319" s="6"/>
+    </row>
+    <row r="320" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L320" s="6"/>
+    </row>
+    <row r="321" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L321" s="6"/>
+    </row>
+    <row r="322" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L322" s="6"/>
+    </row>
+    <row r="323" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L323" s="6"/>
+    </row>
+    <row r="324" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L324" s="6"/>
+    </row>
+    <row r="325" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L325" s="6"/>
+    </row>
+    <row r="326" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L326" s="6"/>
+    </row>
+    <row r="327" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L327" s="6"/>
+    </row>
+    <row r="328" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L328" s="6"/>
+    </row>
+    <row r="329" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L329" s="6"/>
+    </row>
+    <row r="330" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L330" s="6"/>
+    </row>
+    <row r="331" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L331" s="6"/>
+    </row>
+    <row r="332" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L332" s="6"/>
+    </row>
+    <row r="333" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L333" s="6"/>
+    </row>
+    <row r="334" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A334" t="s">
+        <v>5</v>
+      </c>
+      <c r="L334" s="6"/>
+    </row>
+    <row r="335" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L335" s="6"/>
+    </row>
+    <row r="336" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L336" s="6"/>
+    </row>
+    <row r="337" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L337" s="6"/>
+    </row>
+    <row r="338" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L338" s="6"/>
+    </row>
+    <row r="339" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L339" s="6"/>
+    </row>
+    <row r="340" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L340" s="6"/>
+    </row>
+    <row r="341" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L341" s="6"/>
+    </row>
+    <row r="342" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L342" s="6"/>
+    </row>
+    <row r="343" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L343" s="6"/>
+    </row>
+    <row r="344" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L344" s="6"/>
+    </row>
+    <row r="345" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L345" s="6"/>
+    </row>
+    <row r="346" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L346" s="6"/>
+    </row>
+    <row r="347" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L347" s="6"/>
+    </row>
+    <row r="348" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A348" s="4"/>
+      <c r="B348" s="4"/>
+      <c r="C348" s="4"/>
+      <c r="D348" s="4"/>
+      <c r="E348" s="4"/>
+      <c r="F348" s="4"/>
+      <c r="G348" s="4"/>
+      <c r="H348" s="4"/>
+      <c r="I348" s="4"/>
+      <c r="J348" s="4"/>
+      <c r="K348" s="4"/>
+      <c r="L348" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="A4" r:id="rId1" xr:uid="{758FFD21-4167-4AD9-8B24-B50CF11468C4}"/>
+    <hyperlink ref="A50" r:id="rId2" xr:uid="{D0A330CF-5AF6-4BC1-8829-80F942882542}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0056C8EF-7051-4434-8E7C-D4E89464A8A9}">
   <dimension ref="A1:L240"/>
   <sheetViews>

--- a/docs/開発環境構築手順/ポーカー開発環境構築手順.xlsx
+++ b/docs/開発環境構築手順/ポーカー開発環境構築手順.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OWNER\Downloads\pleiades-4.8.0-java-win-64bit-jre_20180923\pleiades\workspace\poker\docs\開発環境構築手順\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61C89F54-F8F0-4CAA-86E7-1E0F81DEEC42}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBE74F3D-6032-4783-9FD6-DE447EF33960}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{569B4C10-2D2E-422C-881C-247CD6F9FE90}"/>
   </bookViews>
@@ -251,19 +251,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>(1)Pokerプロジェクトを右クリックして、表示されるメニューの「maven -&gt; プロジェクトの更新」をクリックする。</t>
-    <rPh sb="15" eb="16">
-      <t>ミギ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>コウシン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>(2)Pokerプロジェクトの「Maven依存関係」から「lombok-1.18.6.jar」を探して、どのフォルダにあるかを確認する。</t>
     <rPh sb="21" eb="23">
       <t>イゾン</t>
@@ -289,6 +276,19 @@
     </rPh>
     <rPh sb="56" eb="58">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(1)Pokerプロジェクトを右クリックして、表示されるメニューの「Maven -&gt; プロジェクトの更新」をクリックする。</t>
+    <rPh sb="15" eb="16">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>コウシン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -12981,65 +12981,65 @@
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A204" t="s">
+        <v>28</v>
+      </c>
+      <c r="L204" s="6"/>
+    </row>
+    <row r="205" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L205" s="6"/>
+    </row>
+    <row r="206" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L206" s="6"/>
+    </row>
+    <row r="207" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L207" s="6"/>
+    </row>
+    <row r="208" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L208" s="6"/>
+    </row>
+    <row r="209" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L209" s="6"/>
+    </row>
+    <row r="210" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L210" s="6"/>
+    </row>
+    <row r="211" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L211" s="6"/>
+    </row>
+    <row r="212" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L212" s="6"/>
+    </row>
+    <row r="213" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L213" s="6"/>
+    </row>
+    <row r="214" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L214" s="6"/>
+    </row>
+    <row r="215" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L215" s="6"/>
+    </row>
+    <row r="216" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L216" s="6"/>
+    </row>
+    <row r="217" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L217" s="6"/>
+    </row>
+    <row r="218" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L218" s="6"/>
+    </row>
+    <row r="219" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L219" s="6"/>
+    </row>
+    <row r="220" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L220" s="6"/>
+    </row>
+    <row r="221" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L221" s="6"/>
+    </row>
+    <row r="222" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A222" t="s">
         <v>26</v>
       </c>
-      <c r="L204" s="6"/>
-    </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L205" s="6"/>
-    </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L206" s="6"/>
-    </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L207" s="6"/>
-    </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L208" s="6"/>
-    </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L209" s="6"/>
-    </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L210" s="6"/>
-    </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L211" s="6"/>
-    </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L212" s="6"/>
-    </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L213" s="6"/>
-    </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L214" s="6"/>
-    </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L215" s="6"/>
-    </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L216" s="6"/>
-    </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L217" s="6"/>
-    </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L218" s="6"/>
-    </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L219" s="6"/>
-    </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L220" s="6"/>
-    </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L221" s="6"/>
-    </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A222" t="s">
-        <v>27</v>
-      </c>
       <c r="L222" s="6"/>
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.45">
@@ -13083,7 +13083,7 @@
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A236" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L236" s="6"/>
     </row>
